--- a/data for mat.xlsx
+++ b/data for mat.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="raw L" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,12 @@
     <sheet name="indep L" sheetId="5" r:id="rId4"/>
     <sheet name="depend L" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2397,7 +2402,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2439,6 +2444,22 @@
     <font>
       <sz val="11"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2499,8 +2520,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2526,8 +2555,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2828,13 +2865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="28">
       <c r="A1" s="1" t="s">
         <v>693</v>
       </c>
@@ -7718,6 +7755,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7728,27 +7770,26 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A35" sqref="A35"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="98.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="84.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
-    <col min="18" max="51" width="12.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="98.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="84.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
+    <col min="18" max="51" width="12.1640625" style="3" customWidth="1"/>
     <col min="52" max="52" width="12.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="41.25">
+    <row r="1" spans="1:52" ht="28">
       <c r="A1" s="1" t="s">
         <v>693</v>
       </c>
@@ -44468,6 +44509,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -44475,13 +44521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -44588,7 +44634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15">
+    <row r="2" spans="1:35" ht="16">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -44695,7 +44741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15">
+    <row r="3" spans="1:35" ht="16">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -44802,7 +44848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15">
+    <row r="4" spans="1:35" ht="16">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -44909,7 +44955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15">
+    <row r="5" spans="1:35" ht="16">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -45016,7 +45062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:35" ht="16">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -45123,7 +45169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15">
+    <row r="7" spans="1:35" ht="16">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -45230,7 +45276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15">
+    <row r="8" spans="1:35" ht="16">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -45337,7 +45383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15">
+    <row r="9" spans="1:35" ht="16">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -45444,7 +45490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15">
+    <row r="10" spans="1:35" ht="16">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -45551,7 +45597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15">
+    <row r="11" spans="1:35" ht="16">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -45658,7 +45704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15">
+    <row r="12" spans="1:35" ht="16">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -45765,7 +45811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15">
+    <row r="13" spans="1:35" ht="16">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -45872,7 +45918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15">
+    <row r="14" spans="1:35" ht="16">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -45971,7 +46017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15">
+    <row r="15" spans="1:35" ht="16">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -46070,7 +46116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15">
+    <row r="16" spans="1:35" ht="16">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -46177,7 +46223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15">
+    <row r="17" spans="1:35" ht="16">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -46276,7 +46322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15">
+    <row r="18" spans="1:35" ht="16">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -46375,7 +46421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15">
+    <row r="19" spans="1:35" ht="16">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -46474,7 +46520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15">
+    <row r="20" spans="1:35" ht="16">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -46573,7 +46619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15">
+    <row r="21" spans="1:35" ht="16">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -46672,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15">
+    <row r="22" spans="1:35" ht="16">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -46771,7 +46817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15">
+    <row r="23" spans="1:35" ht="16">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -46870,7 +46916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15">
+    <row r="24" spans="1:35" ht="16">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -46969,7 +47015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15">
+    <row r="25" spans="1:35" ht="16">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -47068,7 +47114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15">
+    <row r="26" spans="1:35" ht="16">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -47167,7 +47213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15">
+    <row r="27" spans="1:35" ht="16">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -47266,7 +47312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15">
+    <row r="28" spans="1:35" ht="16">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -47365,7 +47411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15">
+    <row r="29" spans="1:35" ht="16">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -47464,7 +47510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15">
+    <row r="30" spans="1:35" ht="16">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -47571,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15">
+    <row r="31" spans="1:35" ht="16">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -47678,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15">
+    <row r="32" spans="1:35" ht="16">
       <c r="A32" s="4" t="s">
         <v>124</v>
       </c>
@@ -47785,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15">
+    <row r="33" spans="1:35" ht="16">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -47892,7 +47938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15">
+    <row r="34" spans="1:35" ht="16">
       <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
@@ -47999,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15">
+    <row r="35" spans="1:35" ht="16">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -48106,7 +48152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15">
+    <row r="36" spans="1:35" ht="16">
       <c r="A36" s="4" t="s">
         <v>135</v>
       </c>
@@ -48213,7 +48259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15">
+    <row r="37" spans="1:35" ht="16">
       <c r="A37" s="4" t="s">
         <v>138</v>
       </c>
@@ -48320,7 +48366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15">
+    <row r="38" spans="1:35" ht="16">
       <c r="A38" s="4" t="s">
         <v>141</v>
       </c>
@@ -48427,7 +48473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15">
+    <row r="39" spans="1:35" ht="16">
       <c r="A39" s="4" t="s">
         <v>144</v>
       </c>
@@ -48534,7 +48580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15">
+    <row r="40" spans="1:35" ht="16">
       <c r="A40" s="4" t="s">
         <v>147</v>
       </c>
@@ -48641,7 +48687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15">
+    <row r="41" spans="1:35" ht="16">
       <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
@@ -48748,7 +48794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15">
+    <row r="42" spans="1:35" ht="16">
       <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
@@ -48847,7 +48893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15">
+    <row r="43" spans="1:35" ht="16">
       <c r="A43" s="4" t="s">
         <v>32</v>
       </c>
@@ -48946,7 +48992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15">
+    <row r="44" spans="1:35" ht="16">
       <c r="A44" s="4" t="s">
         <v>155</v>
       </c>
@@ -49045,7 +49091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15">
+    <row r="45" spans="1:35" ht="16">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -49144,7 +49190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15">
+    <row r="46" spans="1:35" ht="16">
       <c r="A46" s="4" t="s">
         <v>158</v>
       </c>
@@ -49243,7 +49289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15">
+    <row r="47" spans="1:35" ht="16">
       <c r="A47" s="4" t="s">
         <v>160</v>
       </c>
@@ -49342,7 +49388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15">
+    <row r="48" spans="1:35" ht="16">
       <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
@@ -49441,7 +49487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15">
+    <row r="49" spans="1:35" ht="16">
       <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
@@ -49540,7 +49586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15">
+    <row r="50" spans="1:35" ht="16">
       <c r="A50" s="4" t="s">
         <v>164</v>
       </c>
@@ -49639,7 +49685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15">
+    <row r="51" spans="1:35" ht="16">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -49738,7 +49784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15">
+    <row r="52" spans="1:35" ht="16">
       <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
@@ -49837,7 +49883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15">
+    <row r="53" spans="1:35" ht="16">
       <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
@@ -49936,7 +49982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15">
+    <row r="54" spans="1:35" ht="16">
       <c r="A54" s="4" t="s">
         <v>170</v>
       </c>
@@ -50035,7 +50081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15">
+    <row r="55" spans="1:35" ht="16">
       <c r="A55" s="4" t="s">
         <v>172</v>
       </c>
@@ -50134,7 +50180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15">
+    <row r="56" spans="1:35" ht="16">
       <c r="A56" s="4" t="s">
         <v>174</v>
       </c>
@@ -50241,7 +50287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15">
+    <row r="57" spans="1:35" ht="16">
       <c r="A57" s="4" t="s">
         <v>38</v>
       </c>
@@ -50348,7 +50394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15">
+    <row r="58" spans="1:35" ht="16">
       <c r="A58" s="4" t="s">
         <v>179</v>
       </c>
@@ -50455,7 +50501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15">
+    <row r="59" spans="1:35" ht="16">
       <c r="A59" s="4" t="s">
         <v>182</v>
       </c>
@@ -50562,7 +50608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15">
+    <row r="60" spans="1:35" ht="16">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -50669,7 +50715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15">
+    <row r="61" spans="1:35" ht="16">
       <c r="A61" s="4" t="s">
         <v>188</v>
       </c>
@@ -50776,7 +50822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15">
+    <row r="62" spans="1:35" ht="16">
       <c r="A62" s="4" t="s">
         <v>191</v>
       </c>
@@ -50883,7 +50929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15">
+    <row r="63" spans="1:35" ht="16">
       <c r="A63" s="4" t="s">
         <v>194</v>
       </c>
@@ -50990,7 +51036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15">
+    <row r="64" spans="1:35" ht="16">
       <c r="A64" s="4" t="s">
         <v>197</v>
       </c>
@@ -51097,7 +51143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15">
+    <row r="65" spans="1:35" ht="16">
       <c r="A65" s="4" t="s">
         <v>200</v>
       </c>
@@ -51204,7 +51250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15">
+    <row r="66" spans="1:35" ht="16">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -51311,7 +51357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15">
+    <row r="67" spans="1:35" ht="16">
       <c r="A67" s="4" t="s">
         <v>206</v>
       </c>
@@ -51418,7 +51464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15">
+    <row r="68" spans="1:35" ht="16">
       <c r="A68" s="4" t="s">
         <v>209</v>
       </c>
@@ -51525,7 +51571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15">
+    <row r="69" spans="1:35" ht="16">
       <c r="A69" s="4" t="s">
         <v>212</v>
       </c>
@@ -51632,7 +51678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15">
+    <row r="70" spans="1:35" ht="16">
       <c r="A70" s="4" t="s">
         <v>215</v>
       </c>
@@ -51739,7 +51785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15">
+    <row r="71" spans="1:35" ht="16">
       <c r="A71" s="4" t="s">
         <v>218</v>
       </c>
@@ -51846,7 +51892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15">
+    <row r="72" spans="1:35" ht="16">
       <c r="A72" s="4" t="s">
         <v>221</v>
       </c>
@@ -51953,7 +51999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15">
+    <row r="73" spans="1:35" ht="16">
       <c r="A73" s="4" t="s">
         <v>224</v>
       </c>
@@ -52060,7 +52106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15">
+    <row r="74" spans="1:35" ht="16">
       <c r="A74" s="4" t="s">
         <v>227</v>
       </c>
@@ -52167,7 +52213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15">
+    <row r="75" spans="1:35" ht="16">
       <c r="A75" s="4" t="s">
         <v>230</v>
       </c>
@@ -52274,7 +52320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15">
+    <row r="76" spans="1:35" ht="16">
       <c r="A76" s="4" t="s">
         <v>233</v>
       </c>
@@ -52381,7 +52427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15">
+    <row r="77" spans="1:35" ht="16">
       <c r="A77" s="4" t="s">
         <v>236</v>
       </c>
@@ -52488,7 +52534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15">
+    <row r="78" spans="1:35" ht="16">
       <c r="A78" s="4" t="s">
         <v>239</v>
       </c>
@@ -52595,7 +52641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15">
+    <row r="79" spans="1:35" ht="16">
       <c r="A79" s="4" t="s">
         <v>242</v>
       </c>
@@ -52702,7 +52748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15">
+    <row r="80" spans="1:35" ht="16">
       <c r="A80" s="4" t="s">
         <v>245</v>
       </c>
@@ -52809,7 +52855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15">
+    <row r="81" spans="1:35" ht="16">
       <c r="A81" s="4" t="s">
         <v>248</v>
       </c>
@@ -52916,7 +52962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15">
+    <row r="82" spans="1:35" ht="16">
       <c r="A82" s="4" t="s">
         <v>251</v>
       </c>
@@ -53023,7 +53069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15">
+    <row r="83" spans="1:35" ht="16">
       <c r="A83" s="4" t="s">
         <v>254</v>
       </c>
@@ -53130,7 +53176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15">
+    <row r="84" spans="1:35" ht="16">
       <c r="A84" s="4" t="s">
         <v>257</v>
       </c>
@@ -53237,7 +53283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15">
+    <row r="85" spans="1:35" ht="16">
       <c r="A85" s="4" t="s">
         <v>260</v>
       </c>
@@ -53344,7 +53390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15">
+    <row r="86" spans="1:35" ht="16">
       <c r="A86" s="4" t="s">
         <v>263</v>
       </c>
@@ -53451,7 +53497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="15">
+    <row r="87" spans="1:35" ht="16">
       <c r="A87" s="4" t="s">
         <v>266</v>
       </c>
@@ -53550,7 +53596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="15">
+    <row r="88" spans="1:35" ht="16">
       <c r="A88" s="4" t="s">
         <v>268</v>
       </c>
@@ -53649,7 +53695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="15">
+    <row r="89" spans="1:35" ht="16">
       <c r="A89" s="4" t="s">
         <v>270</v>
       </c>
@@ -53748,7 +53794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="15">
+    <row r="90" spans="1:35" ht="16">
       <c r="A90" s="4" t="s">
         <v>272</v>
       </c>
@@ -53847,7 +53893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="15">
+    <row r="91" spans="1:35" ht="16">
       <c r="A91" s="4" t="s">
         <v>274</v>
       </c>
@@ -53954,7 +54000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="15">
+    <row r="92" spans="1:35" ht="16">
       <c r="A92" s="4" t="s">
         <v>277</v>
       </c>
@@ -54053,7 +54099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15">
+    <row r="93" spans="1:35" ht="16">
       <c r="A93" s="4" t="s">
         <v>279</v>
       </c>
@@ -54152,7 +54198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="15">
+    <row r="94" spans="1:35" ht="16">
       <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
@@ -54251,7 +54297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="15">
+    <row r="95" spans="1:35" ht="16">
       <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
@@ -54350,7 +54396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="15">
+    <row r="96" spans="1:35" ht="16">
       <c r="A96" s="4" t="s">
         <v>285</v>
       </c>
@@ -54449,7 +54495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35" ht="15">
+    <row r="97" spans="1:35" ht="16">
       <c r="A97" s="4" t="s">
         <v>287</v>
       </c>
@@ -54548,7 +54594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="15">
+    <row r="98" spans="1:35" ht="16">
       <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
@@ -54647,7 +54693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" ht="15">
+    <row r="99" spans="1:35" ht="16">
       <c r="A99" s="4" t="s">
         <v>291</v>
       </c>
@@ -54746,7 +54792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35" ht="15">
+    <row r="100" spans="1:35" ht="16">
       <c r="A100" s="4" t="s">
         <v>293</v>
       </c>
@@ -54845,7 +54891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35" ht="15">
+    <row r="101" spans="1:35" ht="16">
       <c r="A101" s="4" t="s">
         <v>295</v>
       </c>
@@ -54952,7 +54998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35" ht="15">
+    <row r="102" spans="1:35" ht="16">
       <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
@@ -55059,7 +55105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="15">
+    <row r="103" spans="1:35" ht="16">
       <c r="A103" s="4" t="s">
         <v>301</v>
       </c>
@@ -55166,7 +55212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="15">
+    <row r="104" spans="1:35" ht="16">
       <c r="A104" s="4" t="s">
         <v>304</v>
       </c>
@@ -55273,7 +55319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="15">
+    <row r="105" spans="1:35" ht="16">
       <c r="A105" s="4" t="s">
         <v>307</v>
       </c>
@@ -55380,7 +55426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="15">
+    <row r="106" spans="1:35" ht="16">
       <c r="A106" s="4" t="s">
         <v>310</v>
       </c>
@@ -55487,7 +55533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:35" ht="15">
+    <row r="107" spans="1:35" ht="16">
       <c r="A107" s="4" t="s">
         <v>313</v>
       </c>
@@ -55594,7 +55640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:35" ht="15">
+    <row r="108" spans="1:35" ht="16">
       <c r="A108" s="4" t="s">
         <v>316</v>
       </c>
@@ -55701,7 +55747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="15">
+    <row r="109" spans="1:35" ht="16">
       <c r="A109" s="4" t="s">
         <v>319</v>
       </c>
@@ -55808,7 +55854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:35" ht="15">
+    <row r="110" spans="1:35" ht="16">
       <c r="A110" s="4" t="s">
         <v>322</v>
       </c>
@@ -55915,7 +55961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="15">
+    <row r="111" spans="1:35" ht="16">
       <c r="A111" s="4" t="s">
         <v>325</v>
       </c>
@@ -56022,7 +56068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="15">
+    <row r="112" spans="1:35" ht="16">
       <c r="A112" s="4" t="s">
         <v>327</v>
       </c>
@@ -56129,7 +56175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="15">
+    <row r="113" spans="1:35" ht="16">
       <c r="A113" s="4" t="s">
         <v>329</v>
       </c>
@@ -56236,7 +56282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="15">
+    <row r="114" spans="1:35" ht="16">
       <c r="A114" s="4" t="s">
         <v>332</v>
       </c>
@@ -56343,7 +56389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="15">
+    <row r="115" spans="1:35" ht="16">
       <c r="A115" s="4" t="s">
         <v>335</v>
       </c>
@@ -56450,7 +56496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="15">
+    <row r="116" spans="1:35" ht="16">
       <c r="A116" s="4" t="s">
         <v>338</v>
       </c>
@@ -56557,7 +56603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="15">
+    <row r="117" spans="1:35" ht="16">
       <c r="A117" s="4" t="s">
         <v>340</v>
       </c>
@@ -56664,7 +56710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="15">
+    <row r="118" spans="1:35" ht="16">
       <c r="A118" s="4" t="s">
         <v>342</v>
       </c>
@@ -56771,7 +56817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="15">
+    <row r="119" spans="1:35" ht="16">
       <c r="A119" s="4" t="s">
         <v>345</v>
       </c>
@@ -56878,7 +56924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="15">
+    <row r="120" spans="1:35" ht="16">
       <c r="A120" s="4" t="s">
         <v>348</v>
       </c>
@@ -56985,7 +57031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="15">
+    <row r="121" spans="1:35" ht="16">
       <c r="A121" s="4" t="s">
         <v>351</v>
       </c>
@@ -57092,7 +57138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="15">
+    <row r="122" spans="1:35" ht="16">
       <c r="A122" s="4" t="s">
         <v>354</v>
       </c>
@@ -57199,7 +57245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="15">
+    <row r="123" spans="1:35" ht="16">
       <c r="A123" s="4" t="s">
         <v>357</v>
       </c>
@@ -57306,7 +57352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="15">
+    <row r="124" spans="1:35" ht="16">
       <c r="A124" s="4" t="s">
         <v>360</v>
       </c>
@@ -57413,7 +57459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="15">
+    <row r="125" spans="1:35" ht="16">
       <c r="A125" s="4" t="s">
         <v>363</v>
       </c>
@@ -57520,7 +57566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="15">
+    <row r="126" spans="1:35" ht="16">
       <c r="A126" s="4" t="s">
         <v>366</v>
       </c>
@@ -57627,7 +57673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="15">
+    <row r="127" spans="1:35" ht="16">
       <c r="A127" s="4" t="s">
         <v>369</v>
       </c>
@@ -57734,7 +57780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="15">
+    <row r="128" spans="1:35" ht="16">
       <c r="A128" s="4" t="s">
         <v>372</v>
       </c>
@@ -57841,7 +57887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="15">
+    <row r="129" spans="1:35" ht="16">
       <c r="A129" s="4" t="s">
         <v>375</v>
       </c>
@@ -57948,7 +57994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="15">
+    <row r="130" spans="1:35" ht="16">
       <c r="A130" s="4" t="s">
         <v>378</v>
       </c>
@@ -58055,7 +58101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="15">
+    <row r="131" spans="1:35" ht="16">
       <c r="A131" s="4" t="s">
         <v>380</v>
       </c>
@@ -58162,7 +58208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="15">
+    <row r="132" spans="1:35" ht="16">
       <c r="A132" s="4" t="s">
         <v>383</v>
       </c>
@@ -58269,7 +58315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="15">
+    <row r="133" spans="1:35" ht="16">
       <c r="A133" s="4" t="s">
         <v>386</v>
       </c>
@@ -58376,7 +58422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="15">
+    <row r="134" spans="1:35" ht="16">
       <c r="A134" s="4" t="s">
         <v>389</v>
       </c>
@@ -58483,7 +58529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="15">
+    <row r="135" spans="1:35" ht="16">
       <c r="A135" s="4" t="s">
         <v>392</v>
       </c>
@@ -58590,7 +58636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="15">
+    <row r="136" spans="1:35" ht="16">
       <c r="A136" s="4" t="s">
         <v>395</v>
       </c>
@@ -58689,7 +58735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="15">
+    <row r="137" spans="1:35" ht="16">
       <c r="A137" s="4" t="s">
         <v>397</v>
       </c>
@@ -58788,7 +58834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="15">
+    <row r="138" spans="1:35" ht="16">
       <c r="A138" s="4" t="s">
         <v>399</v>
       </c>
@@ -58887,7 +58933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="15">
+    <row r="139" spans="1:35" ht="16">
       <c r="A139" s="4" t="s">
         <v>401</v>
       </c>
@@ -58986,7 +59032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="15">
+    <row r="140" spans="1:35" ht="16">
       <c r="A140" s="4" t="s">
         <v>403</v>
       </c>
@@ -59093,7 +59139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:35" ht="15">
+    <row r="141" spans="1:35" ht="16">
       <c r="A141" s="4" t="s">
         <v>406</v>
       </c>
@@ -59200,7 +59246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" ht="15">
+    <row r="142" spans="1:35" ht="16">
       <c r="A142" s="4" t="s">
         <v>409</v>
       </c>
@@ -59299,7 +59345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="15">
+    <row r="143" spans="1:35" ht="16">
       <c r="A143" s="4" t="s">
         <v>411</v>
       </c>
@@ -59398,7 +59444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="15">
+    <row r="144" spans="1:35" ht="16">
       <c r="A144" s="4" t="s">
         <v>413</v>
       </c>
@@ -59497,7 +59543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:35" ht="15">
+    <row r="145" spans="1:35" ht="16">
       <c r="A145" s="4" t="s">
         <v>415</v>
       </c>
@@ -59596,7 +59642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:35" ht="15">
+    <row r="146" spans="1:35" ht="16">
       <c r="A146" s="4" t="s">
         <v>417</v>
       </c>
@@ -59695,7 +59741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="15">
+    <row r="147" spans="1:35" ht="16">
       <c r="A147" s="4" t="s">
         <v>419</v>
       </c>
@@ -59794,7 +59840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="15">
+    <row r="148" spans="1:35" ht="16">
       <c r="A148" s="4" t="s">
         <v>421</v>
       </c>
@@ -59893,7 +59939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="15">
+    <row r="149" spans="1:35" ht="16">
       <c r="A149" s="4" t="s">
         <v>423</v>
       </c>
@@ -59992,7 +60038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="15">
+    <row r="150" spans="1:35" ht="16">
       <c r="A150" s="4" t="s">
         <v>425</v>
       </c>
@@ -60091,7 +60137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="15">
+    <row r="151" spans="1:35" ht="16">
       <c r="A151" s="4" t="s">
         <v>427</v>
       </c>
@@ -60190,7 +60236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:35" ht="15">
+    <row r="152" spans="1:35" ht="16">
       <c r="A152" s="4" t="s">
         <v>429</v>
       </c>
@@ -60289,7 +60335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:35" ht="15">
+    <row r="153" spans="1:35" ht="16">
       <c r="A153" s="4" t="s">
         <v>431</v>
       </c>
@@ -60388,7 +60434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" ht="15">
+    <row r="154" spans="1:35" ht="16">
       <c r="A154" s="4" t="s">
         <v>433</v>
       </c>
@@ -60487,7 +60533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="15">
+    <row r="155" spans="1:35" ht="16">
       <c r="A155" s="4" t="s">
         <v>435</v>
       </c>
@@ -60586,7 +60632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" ht="15">
+    <row r="156" spans="1:35" ht="16">
       <c r="A156" s="4" t="s">
         <v>437</v>
       </c>
@@ -60685,7 +60731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:35" ht="15">
+    <row r="157" spans="1:35" ht="16">
       <c r="A157" s="4" t="s">
         <v>439</v>
       </c>
@@ -60784,7 +60830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" ht="15">
+    <row r="158" spans="1:35" ht="16">
       <c r="A158" s="4" t="s">
         <v>441</v>
       </c>
@@ -60883,7 +60929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35" ht="15">
+    <row r="159" spans="1:35" ht="16">
       <c r="A159" s="4" t="s">
         <v>443</v>
       </c>
@@ -60982,7 +61028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" ht="15">
+    <row r="160" spans="1:35" ht="16">
       <c r="A160" s="4" t="s">
         <v>445</v>
       </c>
@@ -61081,7 +61127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35" ht="15">
+    <row r="161" spans="1:35" ht="16">
       <c r="A161" s="4" t="s">
         <v>447</v>
       </c>
@@ -61180,7 +61226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:35" ht="15">
+    <row r="162" spans="1:35" ht="16">
       <c r="A162" s="4" t="s">
         <v>449</v>
       </c>
@@ -61279,7 +61325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:35" ht="15">
+    <row r="163" spans="1:35" ht="16">
       <c r="A163" s="4" t="s">
         <v>451</v>
       </c>
@@ -61378,7 +61424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" ht="15">
+    <row r="164" spans="1:35" ht="16">
       <c r="A164" s="4" t="s">
         <v>453</v>
       </c>
@@ -61477,7 +61523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" ht="15">
+    <row r="165" spans="1:35" ht="16">
       <c r="A165" s="4" t="s">
         <v>455</v>
       </c>
@@ -61576,7 +61622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" ht="15">
+    <row r="166" spans="1:35" ht="16">
       <c r="A166" s="4" t="s">
         <v>457</v>
       </c>
@@ -61675,7 +61721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:35" ht="15">
+    <row r="167" spans="1:35" ht="16">
       <c r="A167" s="4" t="s">
         <v>459</v>
       </c>
@@ -61774,7 +61820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" ht="15">
+    <row r="168" spans="1:35" ht="16">
       <c r="A168" s="4" t="s">
         <v>461</v>
       </c>
@@ -61873,7 +61919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:35" ht="15">
+    <row r="169" spans="1:35" ht="16">
       <c r="A169" s="4" t="s">
         <v>463</v>
       </c>
@@ -61972,7 +62018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" ht="15">
+    <row r="170" spans="1:35" ht="16">
       <c r="A170" s="4" t="s">
         <v>465</v>
       </c>
@@ -62071,7 +62117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:35" ht="15">
+    <row r="171" spans="1:35" ht="16">
       <c r="A171" s="4" t="s">
         <v>467</v>
       </c>
@@ -62170,7 +62216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" ht="15">
+    <row r="172" spans="1:35" ht="16">
       <c r="A172" s="4" t="s">
         <v>469</v>
       </c>
@@ -62269,7 +62315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:35" ht="15">
+    <row r="173" spans="1:35" ht="16">
       <c r="A173" s="4" t="s">
         <v>471</v>
       </c>
@@ -62376,7 +62422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:35" ht="15">
+    <row r="174" spans="1:35" ht="16">
       <c r="A174" s="4" t="s">
         <v>474</v>
       </c>
@@ -62483,7 +62529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:35" ht="15">
+    <row r="175" spans="1:35" ht="16">
       <c r="A175" s="4" t="s">
         <v>477</v>
       </c>
@@ -62590,7 +62636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" ht="15">
+    <row r="176" spans="1:35" ht="16">
       <c r="A176" s="4" t="s">
         <v>480</v>
       </c>
@@ -62697,7 +62743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:35" ht="15">
+    <row r="177" spans="1:35" ht="16">
       <c r="A177" s="4" t="s">
         <v>483</v>
       </c>
@@ -62804,7 +62850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:35" ht="15">
+    <row r="178" spans="1:35" ht="16">
       <c r="A178" s="4" t="s">
         <v>486</v>
       </c>
@@ -62911,7 +62957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35" ht="15">
+    <row r="179" spans="1:35" ht="16">
       <c r="A179" s="4" t="s">
         <v>489</v>
       </c>
@@ -63018,7 +63064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:35" ht="15">
+    <row r="180" spans="1:35" ht="16">
       <c r="A180" s="4" t="s">
         <v>492</v>
       </c>
@@ -63125,7 +63171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:35" ht="15">
+    <row r="181" spans="1:35" ht="16">
       <c r="A181" s="4" t="s">
         <v>495</v>
       </c>
@@ -63232,7 +63278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35" ht="15">
+    <row r="182" spans="1:35" ht="16">
       <c r="A182" s="4" t="s">
         <v>498</v>
       </c>
@@ -63339,7 +63385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:35" ht="15">
+    <row r="183" spans="1:35" ht="16">
       <c r="A183" s="4" t="s">
         <v>501</v>
       </c>
@@ -63438,7 +63484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" ht="15">
+    <row r="184" spans="1:35" ht="16">
       <c r="A184" s="4" t="s">
         <v>503</v>
       </c>
@@ -63537,7 +63583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:35" ht="15">
+    <row r="185" spans="1:35" ht="16">
       <c r="A185" s="4" t="s">
         <v>505</v>
       </c>
@@ -63636,7 +63682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" ht="15">
+    <row r="186" spans="1:35" ht="16">
       <c r="A186" s="4" t="s">
         <v>507</v>
       </c>
@@ -63735,7 +63781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="15">
+    <row r="187" spans="1:35" ht="16">
       <c r="A187" s="4" t="s">
         <v>509</v>
       </c>
@@ -63834,7 +63880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="15">
+    <row r="188" spans="1:35" ht="16">
       <c r="A188" s="4" t="s">
         <v>511</v>
       </c>
@@ -63933,7 +63979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" ht="15">
+    <row r="189" spans="1:35" ht="16">
       <c r="A189" s="4" t="s">
         <v>513</v>
       </c>
@@ -64032,7 +64078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35" ht="15">
+    <row r="190" spans="1:35" ht="16">
       <c r="A190" s="4" t="s">
         <v>515</v>
       </c>
@@ -64131,7 +64177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35" ht="15">
+    <row r="191" spans="1:35" ht="16">
       <c r="A191" s="4" t="s">
         <v>517</v>
       </c>
@@ -64230,7 +64276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:35" ht="15">
+    <row r="192" spans="1:35" ht="16">
       <c r="A192" s="4" t="s">
         <v>519</v>
       </c>
@@ -64329,7 +64375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" ht="15">
+    <row r="193" spans="1:35" ht="16">
       <c r="A193" s="4" t="s">
         <v>521</v>
       </c>
@@ -64436,7 +64482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" ht="15">
+    <row r="194" spans="1:35" ht="16">
       <c r="A194" s="4" t="s">
         <v>524</v>
       </c>
@@ -64543,7 +64589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" ht="15">
+    <row r="195" spans="1:35" ht="16">
       <c r="A195" s="4" t="s">
         <v>527</v>
       </c>
@@ -64650,7 +64696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" ht="15">
+    <row r="196" spans="1:35" ht="16">
       <c r="A196" s="4" t="s">
         <v>530</v>
       </c>
@@ -64757,7 +64803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" ht="15">
+    <row r="197" spans="1:35" ht="16">
       <c r="A197" s="4" t="s">
         <v>533</v>
       </c>
@@ -64864,7 +64910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" ht="15">
+    <row r="198" spans="1:35" ht="16">
       <c r="A198" s="4" t="s">
         <v>536</v>
       </c>
@@ -64971,7 +65017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="15">
+    <row r="199" spans="1:35" ht="16">
       <c r="A199" s="4" t="s">
         <v>539</v>
       </c>
@@ -65078,7 +65124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="15">
+    <row r="200" spans="1:35" ht="16">
       <c r="A200" s="4" t="s">
         <v>542</v>
       </c>
@@ -65185,7 +65231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="15">
+    <row r="201" spans="1:35" ht="16">
       <c r="A201" s="4" t="s">
         <v>545</v>
       </c>
@@ -65292,7 +65338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" ht="15">
+    <row r="202" spans="1:35" ht="16">
       <c r="A202" s="4" t="s">
         <v>548</v>
       </c>
@@ -65399,7 +65445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="15">
+    <row r="203" spans="1:35" ht="16">
       <c r="A203" s="4" t="s">
         <v>551</v>
       </c>
@@ -65506,7 +65552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="15">
+    <row r="204" spans="1:35" ht="16">
       <c r="A204" s="4" t="s">
         <v>554</v>
       </c>
@@ -65613,7 +65659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="15">
+    <row r="205" spans="1:35" ht="16">
       <c r="A205" s="4" t="s">
         <v>557</v>
       </c>
@@ -65712,7 +65758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="15">
+    <row r="206" spans="1:35" ht="16">
       <c r="A206" s="4" t="s">
         <v>559</v>
       </c>
@@ -65811,7 +65857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="15">
+    <row r="207" spans="1:35" ht="16">
       <c r="A207" s="4" t="s">
         <v>561</v>
       </c>
@@ -65910,7 +65956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" ht="15">
+    <row r="208" spans="1:35" ht="16">
       <c r="A208" s="4" t="s">
         <v>563</v>
       </c>
@@ -66009,7 +66055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" ht="15">
+    <row r="209" spans="1:35" ht="16">
       <c r="A209" s="4" t="s">
         <v>565</v>
       </c>
@@ -66108,7 +66154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:35" ht="15">
+    <row r="210" spans="1:35" ht="16">
       <c r="A210" s="4" t="s">
         <v>567</v>
       </c>
@@ -66207,7 +66253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:35" ht="15">
+    <row r="211" spans="1:35" ht="16">
       <c r="A211" s="4" t="s">
         <v>569</v>
       </c>
@@ -66306,7 +66352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" ht="15">
+    <row r="212" spans="1:35" ht="16">
       <c r="A212" s="4" t="s">
         <v>571</v>
       </c>
@@ -66405,7 +66451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:35" ht="15">
+    <row r="213" spans="1:35" ht="16">
       <c r="A213" s="4" t="s">
         <v>573</v>
       </c>
@@ -66504,7 +66550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:35" ht="15">
+    <row r="214" spans="1:35" ht="16">
       <c r="A214" s="4" t="s">
         <v>575</v>
       </c>
@@ -66603,7 +66649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:35" ht="15">
+    <row r="215" spans="1:35" ht="16">
       <c r="A215" s="4" t="s">
         <v>577</v>
       </c>
@@ -66702,7 +66748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" ht="15">
+    <row r="216" spans="1:35" ht="16">
       <c r="A216" s="4" t="s">
         <v>579</v>
       </c>
@@ -66801,7 +66847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" ht="15">
+    <row r="217" spans="1:35" ht="16">
       <c r="A217" s="4" t="s">
         <v>580</v>
       </c>
@@ -66900,7 +66946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" ht="15">
+    <row r="218" spans="1:35" ht="16">
       <c r="A218" s="4" t="s">
         <v>582</v>
       </c>
@@ -66999,7 +67045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" ht="15">
+    <row r="219" spans="1:35" ht="16">
       <c r="A219" s="4" t="s">
         <v>584</v>
       </c>
@@ -67098,7 +67144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="15">
+    <row r="220" spans="1:35" ht="16">
       <c r="A220" s="4" t="s">
         <v>586</v>
       </c>
@@ -67197,7 +67243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:35" ht="15">
+    <row r="221" spans="1:35" ht="16">
       <c r="A221" s="4" t="s">
         <v>587</v>
       </c>
@@ -67296,7 +67342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" ht="15">
+    <row r="222" spans="1:35" ht="16">
       <c r="A222" s="4" t="s">
         <v>589</v>
       </c>
@@ -67395,7 +67441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:35" ht="15">
+    <row r="223" spans="1:35" ht="16">
       <c r="A223" s="4" t="s">
         <v>591</v>
       </c>
@@ -67494,7 +67540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" ht="15">
+    <row r="224" spans="1:35" ht="16">
       <c r="A224" s="4" t="s">
         <v>593</v>
       </c>
@@ -67593,7 +67639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" ht="15">
+    <row r="225" spans="1:35" ht="16">
       <c r="A225" s="4" t="s">
         <v>595</v>
       </c>
@@ -67692,7 +67738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" ht="15">
+    <row r="226" spans="1:35" ht="16">
       <c r="A226" s="4" t="s">
         <v>597</v>
       </c>
@@ -67791,7 +67837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" ht="15">
+    <row r="227" spans="1:35" ht="16">
       <c r="A227" s="4" t="s">
         <v>599</v>
       </c>
@@ -67890,7 +67936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" ht="15">
+    <row r="228" spans="1:35" ht="16">
       <c r="A228" s="4" t="s">
         <v>601</v>
       </c>
@@ -67989,7 +68035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" ht="15">
+    <row r="229" spans="1:35" ht="16">
       <c r="A229" s="4" t="s">
         <v>603</v>
       </c>
@@ -68088,7 +68134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" ht="15">
+    <row r="230" spans="1:35" ht="16">
       <c r="A230" s="4" t="s">
         <v>605</v>
       </c>
@@ -68187,7 +68233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" ht="15">
+    <row r="231" spans="1:35" ht="16">
       <c r="A231" s="4" t="s">
         <v>607</v>
       </c>
@@ -68286,7 +68332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:35" ht="15">
+    <row r="232" spans="1:35" ht="16">
       <c r="A232" s="4" t="s">
         <v>609</v>
       </c>
@@ -68385,7 +68431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:35" ht="15">
+    <row r="233" spans="1:35" ht="16">
       <c r="A233" s="4" t="s">
         <v>611</v>
       </c>
@@ -68484,7 +68530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" ht="15">
+    <row r="234" spans="1:35" ht="16">
       <c r="A234" s="4" t="s">
         <v>613</v>
       </c>
@@ -68583,7 +68629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:35" ht="15">
+    <row r="235" spans="1:35" ht="16">
       <c r="A235" s="4" t="s">
         <v>615</v>
       </c>
@@ -68682,7 +68728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:35" ht="15">
+    <row r="236" spans="1:35" ht="16">
       <c r="A236" s="4" t="s">
         <v>617</v>
       </c>
@@ -68781,7 +68827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:35" ht="15">
+    <row r="237" spans="1:35" ht="16">
       <c r="A237" s="4" t="s">
         <v>619</v>
       </c>
@@ -68880,7 +68926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" ht="15">
+    <row r="238" spans="1:35" ht="16">
       <c r="A238" s="4" t="s">
         <v>621</v>
       </c>
@@ -68979,7 +69025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:35" ht="15">
+    <row r="239" spans="1:35" ht="16">
       <c r="A239" s="4" t="s">
         <v>623</v>
       </c>
@@ -69078,7 +69124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" ht="15">
+    <row r="240" spans="1:35" ht="16">
       <c r="A240" s="4" t="s">
         <v>625</v>
       </c>
@@ -69177,7 +69223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" ht="15">
+    <row r="241" spans="1:35" ht="16">
       <c r="A241" s="4" t="s">
         <v>627</v>
       </c>
@@ -69276,7 +69322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" ht="15">
+    <row r="242" spans="1:35" ht="16">
       <c r="A242" s="4" t="s">
         <v>629</v>
       </c>
@@ -69375,7 +69421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" ht="15">
+    <row r="243" spans="1:35" ht="16">
       <c r="A243" s="4" t="s">
         <v>631</v>
       </c>
@@ -69474,7 +69520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:35" ht="15">
+    <row r="244" spans="1:35" ht="16">
       <c r="A244" s="4" t="s">
         <v>633</v>
       </c>
@@ -69573,7 +69619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" ht="15">
+    <row r="245" spans="1:35" ht="16">
       <c r="A245" s="4" t="s">
         <v>635</v>
       </c>
@@ -69672,7 +69718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" ht="15">
+    <row r="246" spans="1:35" ht="16">
       <c r="A246" s="4" t="s">
         <v>637</v>
       </c>
@@ -69771,7 +69817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" ht="15">
+    <row r="247" spans="1:35" ht="16">
       <c r="A247" s="4" t="s">
         <v>639</v>
       </c>
@@ -69870,7 +69916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:35" ht="15">
+    <row r="248" spans="1:35" ht="16">
       <c r="A248" s="4" t="s">
         <v>641</v>
       </c>
@@ -69969,7 +70015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" ht="15">
+    <row r="249" spans="1:35" ht="16">
       <c r="A249" s="4" t="s">
         <v>643</v>
       </c>
@@ -70076,7 +70122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" ht="15">
+    <row r="250" spans="1:35" ht="16">
       <c r="A250" s="4" t="s">
         <v>646</v>
       </c>
@@ -70183,7 +70229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" ht="15">
+    <row r="251" spans="1:35" ht="16">
       <c r="A251" s="4" t="s">
         <v>648</v>
       </c>
@@ -70290,7 +70336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" ht="15">
+    <row r="252" spans="1:35" ht="16">
       <c r="A252" s="4" t="s">
         <v>650</v>
       </c>
@@ -70397,7 +70443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" ht="15">
+    <row r="253" spans="1:35" ht="16">
       <c r="A253" s="4" t="s">
         <v>653</v>
       </c>
@@ -70504,7 +70550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" ht="15">
+    <row r="254" spans="1:35" ht="16">
       <c r="A254" s="4" t="s">
         <v>656</v>
       </c>
@@ -70611,7 +70657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" ht="15">
+    <row r="255" spans="1:35" ht="16">
       <c r="A255" s="4" t="s">
         <v>659</v>
       </c>
@@ -70718,7 +70764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:35" ht="15">
+    <row r="256" spans="1:35" ht="16">
       <c r="A256" s="4" t="s">
         <v>662</v>
       </c>
@@ -70825,7 +70871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" ht="15">
+    <row r="257" spans="1:35" ht="16">
       <c r="A257" s="4" t="s">
         <v>665</v>
       </c>
@@ -70932,7 +70978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" ht="15">
+    <row r="258" spans="1:35" ht="16">
       <c r="A258" s="4" t="s">
         <v>668</v>
       </c>
@@ -71039,7 +71085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" ht="15">
+    <row r="259" spans="1:35" ht="16">
       <c r="A259" s="4" t="s">
         <v>670</v>
       </c>
@@ -71146,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" ht="15">
+    <row r="260" spans="1:35" ht="16">
       <c r="A260" s="4" t="s">
         <v>673</v>
       </c>
@@ -71245,7 +71291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" ht="15">
+    <row r="261" spans="1:35" ht="16">
       <c r="A261" s="4" t="s">
         <v>675</v>
       </c>
@@ -71344,7 +71390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" ht="15">
+    <row r="262" spans="1:35" ht="16">
       <c r="A262" s="4" t="s">
         <v>677</v>
       </c>
@@ -71443,7 +71489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" ht="15">
+    <row r="263" spans="1:35" ht="16">
       <c r="A263" s="4" t="s">
         <v>679</v>
       </c>
@@ -71542,7 +71588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:35" ht="15">
+    <row r="264" spans="1:35" ht="16">
       <c r="A264" s="4" t="s">
         <v>681</v>
       </c>
@@ -71641,7 +71687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" ht="15">
+    <row r="265" spans="1:35" ht="16">
       <c r="A265" s="4" t="s">
         <v>683</v>
       </c>
@@ -71740,7 +71786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" ht="15">
+    <row r="266" spans="1:35" ht="16">
       <c r="A266" s="4" t="s">
         <v>685</v>
       </c>
@@ -71839,7 +71885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" ht="15">
+    <row r="267" spans="1:35" ht="16">
       <c r="A267" s="4" t="s">
         <v>687</v>
       </c>
@@ -71938,7 +71984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" ht="15">
+    <row r="268" spans="1:35" ht="16">
       <c r="A268" s="4" t="s">
         <v>689</v>
       </c>
@@ -72037,7 +72083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" ht="15">
+    <row r="269" spans="1:35" ht="16">
       <c r="A269" s="4" t="s">
         <v>691</v>
       </c>
@@ -72139,6 +72185,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -72146,13 +72198,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:XFD163"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5">
+    <row r="1" spans="1:9" ht="42">
       <c r="A1" s="1" t="s">
         <v>693</v>
       </c>
@@ -78002,6 +78054,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -78009,27 +78067,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="98.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="84.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
-    <col min="18" max="51" width="12.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="98.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="84.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
+    <col min="18" max="51" width="12.1640625" style="3" customWidth="1"/>
     <col min="52" max="52" width="12.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="41.25">
+    <row r="1" spans="1:52" ht="28">
       <c r="A1" s="1" t="s">
         <v>693</v>
       </c>
@@ -78101,7 +78159,7 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="10"/>
     </row>
-    <row r="2" spans="1:52" ht="15">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -78179,7 +78237,7 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="10"/>
     </row>
-    <row r="3" spans="1:52" ht="15">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -78257,7 +78315,7 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="10"/>
     </row>
-    <row r="4" spans="1:52" ht="15">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -78335,7 +78393,7 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="10"/>
     </row>
-    <row r="5" spans="1:52" ht="15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -78413,7 +78471,7 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="10"/>
     </row>
-    <row r="6" spans="1:52" ht="15">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -78491,7 +78549,7 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="10"/>
     </row>
-    <row r="7" spans="1:52" ht="15">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -78569,7 +78627,7 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="10"/>
     </row>
-    <row r="8" spans="1:52" ht="15">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -78647,7 +78705,7 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="10"/>
     </row>
-    <row r="9" spans="1:52" ht="15">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -78725,7 +78783,7 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" ht="15">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -78803,7 +78861,7 @@
       <c r="AY10" s="4"/>
       <c r="AZ10" s="10"/>
     </row>
-    <row r="11" spans="1:52" ht="15">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -78881,7 +78939,7 @@
       <c r="AY11" s="4"/>
       <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52" ht="15">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -78959,7 +79017,7 @@
       <c r="AY12" s="4"/>
       <c r="AZ12" s="10"/>
     </row>
-    <row r="13" spans="1:52" ht="15">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -79037,7 +79095,7 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="10"/>
     </row>
-    <row r="14" spans="1:52" ht="15">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -79115,7 +79173,7 @@
       <c r="AY14" s="4"/>
       <c r="AZ14" s="10"/>
     </row>
-    <row r="15" spans="1:52" ht="15">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -79193,7 +79251,7 @@
       <c r="AY15" s="4"/>
       <c r="AZ15" s="10"/>
     </row>
-    <row r="16" spans="1:52" ht="15">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -79271,7 +79329,7 @@
       <c r="AY16" s="4"/>
       <c r="AZ16" s="10"/>
     </row>
-    <row r="17" spans="1:52" ht="15">
+    <row r="17" spans="1:52">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -79349,7 +79407,7 @@
       <c r="AY17" s="4"/>
       <c r="AZ17" s="10"/>
     </row>
-    <row r="18" spans="1:52" ht="15">
+    <row r="18" spans="1:52">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -79427,7 +79485,7 @@
       <c r="AY18" s="4"/>
       <c r="AZ18" s="10"/>
     </row>
-    <row r="19" spans="1:52" ht="15">
+    <row r="19" spans="1:52">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -79505,7 +79563,7 @@
       <c r="AY19" s="4"/>
       <c r="AZ19" s="10"/>
     </row>
-    <row r="20" spans="1:52" ht="15">
+    <row r="20" spans="1:52">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -79583,7 +79641,7 @@
       <c r="AY20" s="4"/>
       <c r="AZ20" s="10"/>
     </row>
-    <row r="21" spans="1:52" ht="15">
+    <row r="21" spans="1:52">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -79661,7 +79719,7 @@
       <c r="AY21" s="4"/>
       <c r="AZ21" s="10"/>
     </row>
-    <row r="22" spans="1:52" ht="15">
+    <row r="22" spans="1:52">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -79739,7 +79797,7 @@
       <c r="AY22" s="4"/>
       <c r="AZ22" s="10"/>
     </row>
-    <row r="23" spans="1:52" ht="15">
+    <row r="23" spans="1:52">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -79817,7 +79875,7 @@
       <c r="AY23" s="4"/>
       <c r="AZ23" s="10"/>
     </row>
-    <row r="24" spans="1:52" ht="15">
+    <row r="24" spans="1:52">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -79895,7 +79953,7 @@
       <c r="AY24" s="4"/>
       <c r="AZ24" s="10"/>
     </row>
-    <row r="25" spans="1:52" ht="15">
+    <row r="25" spans="1:52">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -79973,7 +80031,7 @@
       <c r="AY25" s="4"/>
       <c r="AZ25" s="10"/>
     </row>
-    <row r="26" spans="1:52" ht="15">
+    <row r="26" spans="1:52">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -80051,7 +80109,7 @@
       <c r="AY26" s="4"/>
       <c r="AZ26" s="10"/>
     </row>
-    <row r="27" spans="1:52" ht="15">
+    <row r="27" spans="1:52">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -80129,7 +80187,7 @@
       <c r="AY27" s="4"/>
       <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:52" ht="15">
+    <row r="28" spans="1:52">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -80207,7 +80265,7 @@
       <c r="AY28" s="4"/>
       <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:52" ht="15">
+    <row r="29" spans="1:52">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -80285,7 +80343,7 @@
       <c r="AY29" s="4"/>
       <c r="AZ29" s="10"/>
     </row>
-    <row r="30" spans="1:52" ht="15">
+    <row r="30" spans="1:52">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -80363,7 +80421,7 @@
       <c r="AY30" s="4"/>
       <c r="AZ30" s="10"/>
     </row>
-    <row r="31" spans="1:52" ht="15">
+    <row r="31" spans="1:52">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -80441,7 +80499,7 @@
       <c r="AY31" s="4"/>
       <c r="AZ31" s="10"/>
     </row>
-    <row r="32" spans="1:52" ht="15">
+    <row r="32" spans="1:52">
       <c r="A32" t="s">
         <v>702</v>
       </c>
@@ -80519,7 +80577,7 @@
       <c r="AY32" s="4"/>
       <c r="AZ32" s="10"/>
     </row>
-    <row r="33" spans="1:52" ht="15">
+    <row r="33" spans="1:52">
       <c r="A33" t="s">
         <v>703</v>
       </c>
@@ -80597,7 +80655,7 @@
       <c r="AY33" s="4"/>
       <c r="AZ33" s="10"/>
     </row>
-    <row r="34" spans="1:52" ht="15">
+    <row r="34" spans="1:52">
       <c r="A34" t="s">
         <v>704</v>
       </c>
@@ -80675,7 +80733,7 @@
       <c r="AY34" s="4"/>
       <c r="AZ34" s="10"/>
     </row>
-    <row r="35" spans="1:52" ht="15">
+    <row r="35" spans="1:52">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -80753,7 +80811,7 @@
       <c r="AY35" s="4"/>
       <c r="AZ35" s="10"/>
     </row>
-    <row r="36" spans="1:52" ht="15">
+    <row r="36" spans="1:52">
       <c r="A36" t="s">
         <v>705</v>
       </c>
@@ -80831,7 +80889,7 @@
       <c r="AY36" s="4"/>
       <c r="AZ36" s="10"/>
     </row>
-    <row r="37" spans="1:52" ht="15">
+    <row r="37" spans="1:52">
       <c r="A37" t="s">
         <v>707</v>
       </c>
@@ -80909,7 +80967,7 @@
       <c r="AY37" s="4"/>
       <c r="AZ37" s="10"/>
     </row>
-    <row r="38" spans="1:52" ht="15">
+    <row r="38" spans="1:52">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -80987,7 +81045,7 @@
       <c r="AY38" s="4"/>
       <c r="AZ38" s="10"/>
     </row>
-    <row r="39" spans="1:52" ht="15">
+    <row r="39" spans="1:52">
       <c r="A39" t="s">
         <v>709</v>
       </c>
@@ -81065,7 +81123,7 @@
       <c r="AY39" s="4"/>
       <c r="AZ39" s="10"/>
     </row>
-    <row r="40" spans="1:52" ht="15">
+    <row r="40" spans="1:52">
       <c r="A40" t="s">
         <v>710</v>
       </c>
@@ -81143,7 +81201,7 @@
       <c r="AY40" s="4"/>
       <c r="AZ40" s="10"/>
     </row>
-    <row r="41" spans="1:52" ht="15">
+    <row r="41" spans="1:52">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -81221,7 +81279,7 @@
       <c r="AY41" s="4"/>
       <c r="AZ41" s="10"/>
     </row>
-    <row r="42" spans="1:52" ht="15">
+    <row r="42" spans="1:52">
       <c r="A42" t="s">
         <v>711</v>
       </c>
@@ -81299,7 +81357,7 @@
       <c r="AY42" s="4"/>
       <c r="AZ42" s="10"/>
     </row>
-    <row r="43" spans="1:52" ht="15">
+    <row r="43" spans="1:52">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -81377,7 +81435,7 @@
       <c r="AY43" s="4"/>
       <c r="AZ43" s="10"/>
     </row>
-    <row r="44" spans="1:52" ht="15">
+    <row r="44" spans="1:52">
       <c r="A44" t="s">
         <v>712</v>
       </c>
@@ -81455,7 +81513,7 @@
       <c r="AY44" s="4"/>
       <c r="AZ44" s="10"/>
     </row>
-    <row r="45" spans="1:52" ht="15">
+    <row r="45" spans="1:52">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -81533,7 +81591,7 @@
       <c r="AY45" s="4"/>
       <c r="AZ45" s="10"/>
     </row>
-    <row r="46" spans="1:52" ht="15">
+    <row r="46" spans="1:52">
       <c r="A46" t="s">
         <v>713</v>
       </c>
@@ -81611,7 +81669,7 @@
       <c r="AY46" s="4"/>
       <c r="AZ46" s="10"/>
     </row>
-    <row r="47" spans="1:52" ht="15">
+    <row r="47" spans="1:52">
       <c r="A47" t="s">
         <v>714</v>
       </c>
@@ -81689,7 +81747,7 @@
       <c r="AY47" s="4"/>
       <c r="AZ47" s="10"/>
     </row>
-    <row r="48" spans="1:52" ht="15">
+    <row r="48" spans="1:52">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -81767,7 +81825,7 @@
       <c r="AY48" s="4"/>
       <c r="AZ48" s="10"/>
     </row>
-    <row r="49" spans="1:52" ht="15">
+    <row r="49" spans="1:52">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -81845,7 +81903,7 @@
       <c r="AY49" s="4"/>
       <c r="AZ49" s="10"/>
     </row>
-    <row r="50" spans="1:52" ht="15">
+    <row r="50" spans="1:52">
       <c r="A50" t="s">
         <v>715</v>
       </c>
@@ -81923,7 +81981,7 @@
       <c r="AY50" s="4"/>
       <c r="AZ50" s="10"/>
     </row>
-    <row r="51" spans="1:52" ht="15">
+    <row r="51" spans="1:52">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -82001,7 +82059,7 @@
       <c r="AY51" s="4"/>
       <c r="AZ51" s="10"/>
     </row>
-    <row r="52" spans="1:52" ht="15">
+    <row r="52" spans="1:52">
       <c r="A52" t="s">
         <v>716</v>
       </c>
@@ -82079,7 +82137,7 @@
       <c r="AY52" s="4"/>
       <c r="AZ52" s="10"/>
     </row>
-    <row r="53" spans="1:52" ht="15">
+    <row r="53" spans="1:52">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -82157,7 +82215,7 @@
       <c r="AY53" s="4"/>
       <c r="AZ53" s="10"/>
     </row>
-    <row r="54" spans="1:52" ht="15">
+    <row r="54" spans="1:52">
       <c r="A54" t="s">
         <v>717</v>
       </c>
@@ -82235,7 +82293,7 @@
       <c r="AY54" s="4"/>
       <c r="AZ54" s="10"/>
     </row>
-    <row r="55" spans="1:52" ht="15">
+    <row r="55" spans="1:52">
       <c r="A55" t="s">
         <v>718</v>
       </c>
@@ -82313,7 +82371,7 @@
       <c r="AY55" s="4"/>
       <c r="AZ55" s="10"/>
     </row>
-    <row r="56" spans="1:52" ht="15">
+    <row r="56" spans="1:52">
       <c r="A56" t="s">
         <v>719</v>
       </c>
@@ -82391,7 +82449,7 @@
       <c r="AY56" s="4"/>
       <c r="AZ56" s="10"/>
     </row>
-    <row r="57" spans="1:52" ht="15">
+    <row r="57" spans="1:52">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -82469,7 +82527,7 @@
       <c r="AY57" s="4"/>
       <c r="AZ57" s="10"/>
     </row>
-    <row r="58" spans="1:52" ht="15">
+    <row r="58" spans="1:52">
       <c r="A58" t="s">
         <v>720</v>
       </c>
@@ -82547,7 +82605,7 @@
       <c r="AY58" s="4"/>
       <c r="AZ58" s="10"/>
     </row>
-    <row r="59" spans="1:52" ht="15">
+    <row r="59" spans="1:52">
       <c r="A59" t="s">
         <v>721</v>
       </c>
@@ -82625,7 +82683,7 @@
       <c r="AY59" s="4"/>
       <c r="AZ59" s="10"/>
     </row>
-    <row r="60" spans="1:52" ht="15">
+    <row r="60" spans="1:52">
       <c r="A60" t="s">
         <v>722</v>
       </c>
@@ -82703,7 +82761,7 @@
       <c r="AY60" s="4"/>
       <c r="AZ60" s="10"/>
     </row>
-    <row r="61" spans="1:52" ht="15">
+    <row r="61" spans="1:52">
       <c r="A61" t="s">
         <v>723</v>
       </c>
@@ -82781,7 +82839,7 @@
       <c r="AY61" s="4"/>
       <c r="AZ61" s="10"/>
     </row>
-    <row r="62" spans="1:52" ht="15">
+    <row r="62" spans="1:52">
       <c r="A62" t="s">
         <v>724</v>
       </c>
@@ -82859,7 +82917,7 @@
       <c r="AY62" s="4"/>
       <c r="AZ62" s="10"/>
     </row>
-    <row r="63" spans="1:52" ht="15">
+    <row r="63" spans="1:52">
       <c r="A63" t="s">
         <v>725</v>
       </c>
@@ -82937,7 +82995,7 @@
       <c r="AY63" s="4"/>
       <c r="AZ63" s="10"/>
     </row>
-    <row r="64" spans="1:52" ht="15">
+    <row r="64" spans="1:52">
       <c r="A64" t="s">
         <v>726</v>
       </c>
@@ -83015,7 +83073,7 @@
       <c r="AY64" s="4"/>
       <c r="AZ64" s="10"/>
     </row>
-    <row r="65" spans="1:52" ht="15">
+    <row r="65" spans="1:52">
       <c r="A65" t="s">
         <v>727</v>
       </c>
@@ -83093,7 +83151,7 @@
       <c r="AY65" s="4"/>
       <c r="AZ65" s="10"/>
     </row>
-    <row r="66" spans="1:52" ht="15">
+    <row r="66" spans="1:52">
       <c r="A66" s="13"/>
       <c r="B66" s="13">
         <v>0.1</v>
@@ -83169,7 +83227,7 @@
       <c r="AY66" s="4"/>
       <c r="AZ66" s="10"/>
     </row>
-    <row r="67" spans="1:52" ht="15">
+    <row r="67" spans="1:52">
       <c r="A67" s="13" t="s">
         <v>728</v>
       </c>
@@ -83246,7 +83304,7 @@
       <c r="AY67" s="4"/>
       <c r="AZ67" s="10"/>
     </row>
-    <row r="68" spans="1:52" ht="15">
+    <row r="68" spans="1:52">
       <c r="B68">
         <v>0.1</v>
       </c>
@@ -83320,7 +83378,7 @@
       <c r="AY68" s="4"/>
       <c r="AZ68" s="10"/>
     </row>
-    <row r="69" spans="1:52" ht="15">
+    <row r="69" spans="1:52">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -83397,7 +83455,7 @@
       <c r="AY69" s="4"/>
       <c r="AZ69" s="10"/>
     </row>
-    <row r="70" spans="1:52" ht="15">
+    <row r="70" spans="1:52">
       <c r="B70">
         <v>0.1</v>
       </c>
@@ -83471,7 +83529,7 @@
       <c r="AY70" s="4"/>
       <c r="AZ70" s="10"/>
     </row>
-    <row r="71" spans="1:52" ht="15">
+    <row r="71" spans="1:52">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -83548,7 +83606,7 @@
       <c r="AY71" s="4"/>
       <c r="AZ71" s="10"/>
     </row>
-    <row r="72" spans="1:52" ht="15">
+    <row r="72" spans="1:52">
       <c r="B72">
         <v>0.1</v>
       </c>
@@ -83622,7 +83680,7 @@
       <c r="AY72" s="4"/>
       <c r="AZ72" s="10"/>
     </row>
-    <row r="73" spans="1:52" ht="15">
+    <row r="73" spans="1:52">
       <c r="A73" t="s">
         <v>729</v>
       </c>
@@ -83699,7 +83757,7 @@
       <c r="AY73" s="4"/>
       <c r="AZ73" s="10"/>
     </row>
-    <row r="74" spans="1:52" ht="15">
+    <row r="74" spans="1:52">
       <c r="B74">
         <v>0.1</v>
       </c>
@@ -83773,7 +83831,7 @@
       <c r="AY74" s="4"/>
       <c r="AZ74" s="10"/>
     </row>
-    <row r="75" spans="1:52" ht="15">
+    <row r="75" spans="1:52">
       <c r="A75" t="s">
         <v>230</v>
       </c>
@@ -83850,7 +83908,7 @@
       <c r="AY75" s="4"/>
       <c r="AZ75" s="10"/>
     </row>
-    <row r="76" spans="1:52" ht="15">
+    <row r="76" spans="1:52">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -83927,7 +83985,7 @@
       <c r="AY76" s="4"/>
       <c r="AZ76" s="10"/>
     </row>
-    <row r="77" spans="1:52" ht="15">
+    <row r="77" spans="1:52">
       <c r="A77" t="s">
         <v>236</v>
       </c>
@@ -84004,7 +84062,7 @@
       <c r="AY77" s="4"/>
       <c r="AZ77" s="10"/>
     </row>
-    <row r="78" spans="1:52" ht="15">
+    <row r="78" spans="1:52">
       <c r="A78" t="s">
         <v>730</v>
       </c>
@@ -84081,7 +84139,7 @@
       <c r="AY78" s="4"/>
       <c r="AZ78" s="10"/>
     </row>
-    <row r="79" spans="1:52" ht="15">
+    <row r="79" spans="1:52">
       <c r="A79" t="s">
         <v>242</v>
       </c>
@@ -84158,7 +84216,7 @@
       <c r="AY79" s="4"/>
       <c r="AZ79" s="10"/>
     </row>
-    <row r="80" spans="1:52" ht="15">
+    <row r="80" spans="1:52">
       <c r="A80" t="s">
         <v>245</v>
       </c>
@@ -84235,7 +84293,7 @@
       <c r="AY80" s="4"/>
       <c r="AZ80" s="10"/>
     </row>
-    <row r="81" spans="1:52" ht="15">
+    <row r="81" spans="1:52">
       <c r="A81" t="s">
         <v>731</v>
       </c>
@@ -84312,7 +84370,7 @@
       <c r="AY81" s="4"/>
       <c r="AZ81" s="10"/>
     </row>
-    <row r="82" spans="1:52" ht="15">
+    <row r="82" spans="1:52">
       <c r="A82" t="s">
         <v>732</v>
       </c>
@@ -84389,7 +84447,7 @@
       <c r="AY82" s="4"/>
       <c r="AZ82" s="10"/>
     </row>
-    <row r="83" spans="1:52" ht="15">
+    <row r="83" spans="1:52">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -84466,7 +84524,7 @@
       <c r="AY83" s="4"/>
       <c r="AZ83" s="10"/>
     </row>
-    <row r="84" spans="1:52" ht="15">
+    <row r="84" spans="1:52">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -84543,7 +84601,7 @@
       <c r="AY84" s="4"/>
       <c r="AZ84" s="10"/>
     </row>
-    <row r="85" spans="1:52" ht="15">
+    <row r="85" spans="1:52">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -84620,7 +84678,7 @@
       <c r="AY85" s="4"/>
       <c r="AZ85" s="10"/>
     </row>
-    <row r="86" spans="1:52" ht="15">
+    <row r="86" spans="1:52">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -84697,7 +84755,7 @@
       <c r="AY86" s="4"/>
       <c r="AZ86" s="10"/>
     </row>
-    <row r="87" spans="1:52" ht="15">
+    <row r="87" spans="1:52">
       <c r="A87" t="s">
         <v>733</v>
       </c>
@@ -84774,7 +84832,7 @@
       <c r="AY87" s="4"/>
       <c r="AZ87" s="10"/>
     </row>
-    <row r="88" spans="1:52" ht="15">
+    <row r="88" spans="1:52">
       <c r="A88" t="s">
         <v>734</v>
       </c>
@@ -84851,7 +84909,7 @@
       <c r="AY88" s="4"/>
       <c r="AZ88" s="10"/>
     </row>
-    <row r="89" spans="1:52" ht="15">
+    <row r="89" spans="1:52">
       <c r="A89" t="s">
         <v>735</v>
       </c>
@@ -84928,7 +84986,7 @@
       <c r="AY89" s="4"/>
       <c r="AZ89" s="10"/>
     </row>
-    <row r="90" spans="1:52" ht="15">
+    <row r="90" spans="1:52">
       <c r="A90" t="s">
         <v>736</v>
       </c>
@@ -85005,7 +85063,7 @@
       <c r="AY90" s="4"/>
       <c r="AZ90" s="10"/>
     </row>
-    <row r="91" spans="1:52" ht="15">
+    <row r="91" spans="1:52">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -85082,7 +85140,7 @@
       <c r="AY91" s="4"/>
       <c r="AZ91" s="10"/>
     </row>
-    <row r="92" spans="1:52" ht="15">
+    <row r="92" spans="1:52">
       <c r="A92" t="s">
         <v>737</v>
       </c>
@@ -85159,7 +85217,7 @@
       <c r="AY92" s="4"/>
       <c r="AZ92" s="10"/>
     </row>
-    <row r="93" spans="1:52" ht="15">
+    <row r="93" spans="1:52">
       <c r="A93" t="s">
         <v>738</v>
       </c>
@@ -85236,7 +85294,7 @@
       <c r="AY93" s="4"/>
       <c r="AZ93" s="10"/>
     </row>
-    <row r="94" spans="1:52" ht="15">
+    <row r="94" spans="1:52">
       <c r="A94" t="s">
         <v>739</v>
       </c>
@@ -85313,7 +85371,7 @@
       <c r="AY94" s="4"/>
       <c r="AZ94" s="10"/>
     </row>
-    <row r="95" spans="1:52" ht="15">
+    <row r="95" spans="1:52">
       <c r="A95" t="s">
         <v>740</v>
       </c>
@@ -85390,7 +85448,7 @@
       <c r="AY95" s="4"/>
       <c r="AZ95" s="10"/>
     </row>
-    <row r="96" spans="1:52" ht="15">
+    <row r="96" spans="1:52">
       <c r="A96" t="s">
         <v>741</v>
       </c>
@@ -85467,7 +85525,7 @@
       <c r="AY96" s="4"/>
       <c r="AZ96" s="10"/>
     </row>
-    <row r="97" spans="1:52" ht="15">
+    <row r="97" spans="1:52">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -85544,7 +85602,7 @@
       <c r="AY97" s="4"/>
       <c r="AZ97" s="10"/>
     </row>
-    <row r="98" spans="1:52" ht="15">
+    <row r="98" spans="1:52">
       <c r="A98" t="s">
         <v>289</v>
       </c>
@@ -85621,7 +85679,7 @@
       <c r="AY98" s="4"/>
       <c r="AZ98" s="10"/>
     </row>
-    <row r="99" spans="1:52" ht="15">
+    <row r="99" spans="1:52">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -85698,7 +85756,7 @@
       <c r="AY99" s="4"/>
       <c r="AZ99" s="10"/>
     </row>
-    <row r="100" spans="1:52" ht="15">
+    <row r="100" spans="1:52">
       <c r="A100" t="s">
         <v>293</v>
       </c>
@@ -85775,7 +85833,7 @@
       <c r="AY100" s="4"/>
       <c r="AZ100" s="10"/>
     </row>
-    <row r="101" spans="1:52" ht="15">
+    <row r="101" spans="1:52">
       <c r="A101" t="s">
         <v>295</v>
       </c>
@@ -85852,7 +85910,7 @@
       <c r="AY101" s="4"/>
       <c r="AZ101" s="10"/>
     </row>
-    <row r="102" spans="1:52" ht="15">
+    <row r="102" spans="1:52">
       <c r="A102" t="s">
         <v>298</v>
       </c>
@@ -85929,7 +85987,7 @@
       <c r="AY102" s="4"/>
       <c r="AZ102" s="10"/>
     </row>
-    <row r="103" spans="1:52" ht="15">
+    <row r="103" spans="1:52">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -86006,7 +86064,7 @@
       <c r="AY103" s="4"/>
       <c r="AZ103" s="10"/>
     </row>
-    <row r="104" spans="1:52" ht="15">
+    <row r="104" spans="1:52">
       <c r="A104" t="s">
         <v>304</v>
       </c>
@@ -86083,7 +86141,7 @@
       <c r="AY104" s="4"/>
       <c r="AZ104" s="10"/>
     </row>
-    <row r="105" spans="1:52" ht="15">
+    <row r="105" spans="1:52">
       <c r="A105" t="s">
         <v>742</v>
       </c>
@@ -86160,7 +86218,7 @@
       <c r="AY105" s="4"/>
       <c r="AZ105" s="10"/>
     </row>
-    <row r="106" spans="1:52" ht="15">
+    <row r="106" spans="1:52">
       <c r="A106" t="s">
         <v>310</v>
       </c>
@@ -86237,7 +86295,7 @@
       <c r="AY106" s="4"/>
       <c r="AZ106" s="10"/>
     </row>
-    <row r="107" spans="1:52" ht="15">
+    <row r="107" spans="1:52">
       <c r="A107" t="s">
         <v>313</v>
       </c>
@@ -86314,7 +86372,7 @@
       <c r="AY107" s="4"/>
       <c r="AZ107" s="10"/>
     </row>
-    <row r="108" spans="1:52" ht="15">
+    <row r="108" spans="1:52">
       <c r="A108" t="s">
         <v>316</v>
       </c>
@@ -86391,7 +86449,7 @@
       <c r="AY108" s="4"/>
       <c r="AZ108" s="10"/>
     </row>
-    <row r="109" spans="1:52" ht="15">
+    <row r="109" spans="1:52">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -86468,7 +86526,7 @@
       <c r="AY109" s="4"/>
       <c r="AZ109" s="10"/>
     </row>
-    <row r="110" spans="1:52" ht="15">
+    <row r="110" spans="1:52">
       <c r="A110" t="s">
         <v>743</v>
       </c>
@@ -86545,7 +86603,7 @@
       <c r="AY110" s="4"/>
       <c r="AZ110" s="10"/>
     </row>
-    <row r="111" spans="1:52" ht="15">
+    <row r="111" spans="1:52">
       <c r="A111" t="s">
         <v>744</v>
       </c>
@@ -86622,7 +86680,7 @@
       <c r="AY111" s="4"/>
       <c r="AZ111" s="10"/>
     </row>
-    <row r="112" spans="1:52" ht="15">
+    <row r="112" spans="1:52">
       <c r="A112" t="s">
         <v>745</v>
       </c>
@@ -86699,7 +86757,7 @@
       <c r="AY112" s="4"/>
       <c r="AZ112" s="10"/>
     </row>
-    <row r="113" spans="1:52" ht="15">
+    <row r="113" spans="1:52">
       <c r="A113" t="s">
         <v>746</v>
       </c>
@@ -86776,7 +86834,7 @@
       <c r="AY113" s="4"/>
       <c r="AZ113" s="10"/>
     </row>
-    <row r="114" spans="1:52" ht="15">
+    <row r="114" spans="1:52">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -86853,7 +86911,7 @@
       <c r="AY114" s="4"/>
       <c r="AZ114" s="10"/>
     </row>
-    <row r="115" spans="1:52" ht="15">
+    <row r="115" spans="1:52">
       <c r="A115" t="s">
         <v>747</v>
       </c>
@@ -86930,7 +86988,7 @@
       <c r="AY115" s="4"/>
       <c r="AZ115" s="10"/>
     </row>
-    <row r="116" spans="1:52" ht="15">
+    <row r="116" spans="1:52">
       <c r="A116" t="s">
         <v>748</v>
       </c>
@@ -87007,7 +87065,7 @@
       <c r="AY116" s="4"/>
       <c r="AZ116" s="10"/>
     </row>
-    <row r="117" spans="1:52" ht="15">
+    <row r="117" spans="1:52">
       <c r="A117" t="s">
         <v>749</v>
       </c>
@@ -87084,7 +87142,7 @@
       <c r="AY117" s="4"/>
       <c r="AZ117" s="10"/>
     </row>
-    <row r="118" spans="1:52" ht="15">
+    <row r="118" spans="1:52">
       <c r="A118" t="s">
         <v>342</v>
       </c>
@@ -87161,7 +87219,7 @@
       <c r="AY118" s="4"/>
       <c r="AZ118" s="10"/>
     </row>
-    <row r="119" spans="1:52" ht="15">
+    <row r="119" spans="1:52">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -87238,7 +87296,7 @@
       <c r="AY119" s="4"/>
       <c r="AZ119" s="10"/>
     </row>
-    <row r="120" spans="1:52" ht="15">
+    <row r="120" spans="1:52">
       <c r="A120" t="s">
         <v>750</v>
       </c>
@@ -87315,7 +87373,7 @@
       <c r="AY120" s="4"/>
       <c r="AZ120" s="10"/>
     </row>
-    <row r="121" spans="1:52" ht="15">
+    <row r="121" spans="1:52">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -87392,7 +87450,7 @@
       <c r="AY121" s="4"/>
       <c r="AZ121" s="10"/>
     </row>
-    <row r="122" spans="1:52" ht="15">
+    <row r="122" spans="1:52">
       <c r="A122" t="s">
         <v>354</v>
       </c>
@@ -87469,7 +87527,7 @@
       <c r="AY122" s="4"/>
       <c r="AZ122" s="10"/>
     </row>
-    <row r="123" spans="1:52" ht="15">
+    <row r="123" spans="1:52">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -87546,7 +87604,7 @@
       <c r="AY123" s="4"/>
       <c r="AZ123" s="10"/>
     </row>
-    <row r="124" spans="1:52" ht="15">
+    <row r="124" spans="1:52">
       <c r="A124" t="s">
         <v>751</v>
       </c>
@@ -87623,7 +87681,7 @@
       <c r="AY124" s="4"/>
       <c r="AZ124" s="10"/>
     </row>
-    <row r="125" spans="1:52" ht="15">
+    <row r="125" spans="1:52">
       <c r="A125" t="s">
         <v>752</v>
       </c>
@@ -87700,7 +87758,7 @@
       <c r="AY125" s="4"/>
       <c r="AZ125" s="10"/>
     </row>
-    <row r="126" spans="1:52" ht="15">
+    <row r="126" spans="1:52">
       <c r="A126" t="s">
         <v>753</v>
       </c>
@@ -87777,7 +87835,7 @@
       <c r="AY126" s="4"/>
       <c r="AZ126" s="10"/>
     </row>
-    <row r="127" spans="1:52" ht="15">
+    <row r="127" spans="1:52">
       <c r="A127" t="s">
         <v>754</v>
       </c>
@@ -87854,7 +87912,7 @@
       <c r="AY127" s="4"/>
       <c r="AZ127" s="10"/>
     </row>
-    <row r="128" spans="1:52" ht="15">
+    <row r="128" spans="1:52">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -87931,7 +87989,7 @@
       <c r="AY128" s="4"/>
       <c r="AZ128" s="10"/>
     </row>
-    <row r="129" spans="1:52" ht="15">
+    <row r="129" spans="1:52">
       <c r="A129" t="s">
         <v>755</v>
       </c>
@@ -88008,7 +88066,7 @@
       <c r="AY129" s="4"/>
       <c r="AZ129" s="10"/>
     </row>
-    <row r="130" spans="1:52" ht="15">
+    <row r="130" spans="1:52">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -88085,7 +88143,7 @@
       <c r="AY130" s="4"/>
       <c r="AZ130" s="10"/>
     </row>
-    <row r="131" spans="1:52" ht="15">
+    <row r="131" spans="1:52">
       <c r="A131" t="s">
         <v>756</v>
       </c>
@@ -88162,7 +88220,7 @@
       <c r="AY131" s="4"/>
       <c r="AZ131" s="10"/>
     </row>
-    <row r="132" spans="1:52" ht="15">
+    <row r="132" spans="1:52">
       <c r="A132" t="s">
         <v>757</v>
       </c>
@@ -88239,7 +88297,7 @@
       <c r="AY132" s="4"/>
       <c r="AZ132" s="10"/>
     </row>
-    <row r="133" spans="1:52" ht="15">
+    <row r="133" spans="1:52">
       <c r="A133" t="s">
         <v>386</v>
       </c>
@@ -88316,7 +88374,7 @@
       <c r="AY133" s="4"/>
       <c r="AZ133" s="10"/>
     </row>
-    <row r="134" spans="1:52" ht="15">
+    <row r="134" spans="1:52">
       <c r="A134" t="s">
         <v>758</v>
       </c>
@@ -88393,7 +88451,7 @@
       <c r="AY134" s="4"/>
       <c r="AZ134" s="10"/>
     </row>
-    <row r="135" spans="1:52" ht="15">
+    <row r="135" spans="1:52">
       <c r="A135" t="s">
         <v>759</v>
       </c>
@@ -88470,7 +88528,7 @@
       <c r="AY135" s="4"/>
       <c r="AZ135" s="10"/>
     </row>
-    <row r="136" spans="1:52" ht="15">
+    <row r="136" spans="1:52">
       <c r="A136" t="s">
         <v>395</v>
       </c>
@@ -88547,7 +88605,7 @@
       <c r="AY136" s="4"/>
       <c r="AZ136" s="10"/>
     </row>
-    <row r="137" spans="1:52" ht="15">
+    <row r="137" spans="1:52">
       <c r="A137" t="s">
         <v>397</v>
       </c>
@@ -88624,7 +88682,7 @@
       <c r="AY137" s="4"/>
       <c r="AZ137" s="10"/>
     </row>
-    <row r="138" spans="1:52" ht="15">
+    <row r="138" spans="1:52">
       <c r="A138" t="s">
         <v>399</v>
       </c>
@@ -88701,7 +88759,7 @@
       <c r="AY138" s="4"/>
       <c r="AZ138" s="10"/>
     </row>
-    <row r="139" spans="1:52" ht="15">
+    <row r="139" spans="1:52">
       <c r="A139" t="s">
         <v>401</v>
       </c>
@@ -88778,7 +88836,7 @@
       <c r="AY139" s="4"/>
       <c r="AZ139" s="10"/>
     </row>
-    <row r="140" spans="1:52" ht="15">
+    <row r="140" spans="1:52">
       <c r="A140" t="s">
         <v>403</v>
       </c>
@@ -88855,7 +88913,7 @@
       <c r="AY140" s="4"/>
       <c r="AZ140" s="10"/>
     </row>
-    <row r="141" spans="1:52" ht="15">
+    <row r="141" spans="1:52">
       <c r="A141" t="s">
         <v>406</v>
       </c>
@@ -88932,7 +88990,7 @@
       <c r="AY141" s="4"/>
       <c r="AZ141" s="10"/>
     </row>
-    <row r="142" spans="1:52" ht="15">
+    <row r="142" spans="1:52">
       <c r="A142" t="s">
         <v>409</v>
       </c>
@@ -89009,7 +89067,7 @@
       <c r="AY142" s="4"/>
       <c r="AZ142" s="10"/>
     </row>
-    <row r="143" spans="1:52" ht="15">
+    <row r="143" spans="1:52">
       <c r="A143" t="s">
         <v>411</v>
       </c>
@@ -89086,7 +89144,7 @@
       <c r="AY143" s="4"/>
       <c r="AZ143" s="10"/>
     </row>
-    <row r="144" spans="1:52" ht="15">
+    <row r="144" spans="1:52">
       <c r="A144" t="s">
         <v>413</v>
       </c>
@@ -89163,7 +89221,7 @@
       <c r="AY144" s="4"/>
       <c r="AZ144" s="10"/>
     </row>
-    <row r="145" spans="1:52" ht="15">
+    <row r="145" spans="1:52">
       <c r="A145" t="s">
         <v>415</v>
       </c>
@@ -89240,7 +89298,7 @@
       <c r="AY145" s="4"/>
       <c r="AZ145" s="10"/>
     </row>
-    <row r="146" spans="1:52" ht="15">
+    <row r="146" spans="1:52">
       <c r="A146" t="s">
         <v>417</v>
       </c>
@@ -89317,7 +89375,7 @@
       <c r="AY146" s="4"/>
       <c r="AZ146" s="10"/>
     </row>
-    <row r="147" spans="1:52" ht="15">
+    <row r="147" spans="1:52">
       <c r="A147" t="s">
         <v>419</v>
       </c>
@@ -89394,7 +89452,7 @@
       <c r="AY147" s="4"/>
       <c r="AZ147" s="10"/>
     </row>
-    <row r="148" spans="1:52" ht="15">
+    <row r="148" spans="1:52">
       <c r="A148" t="s">
         <v>421</v>
       </c>
@@ -89471,7 +89529,7 @@
       <c r="AY148" s="4"/>
       <c r="AZ148" s="10"/>
     </row>
-    <row r="149" spans="1:52" ht="15">
+    <row r="149" spans="1:52">
       <c r="A149" t="s">
         <v>423</v>
       </c>
@@ -89548,7 +89606,7 @@
       <c r="AY149" s="4"/>
       <c r="AZ149" s="10"/>
     </row>
-    <row r="150" spans="1:52" ht="15">
+    <row r="150" spans="1:52">
       <c r="A150" t="s">
         <v>425</v>
       </c>
@@ -89625,7 +89683,7 @@
       <c r="AY150" s="4"/>
       <c r="AZ150" s="10"/>
     </row>
-    <row r="151" spans="1:52" ht="15">
+    <row r="151" spans="1:52">
       <c r="A151" t="s">
         <v>427</v>
       </c>
@@ -89702,7 +89760,7 @@
       <c r="AY151" s="4"/>
       <c r="AZ151" s="10"/>
     </row>
-    <row r="152" spans="1:52" ht="15">
+    <row r="152" spans="1:52">
       <c r="A152" t="s">
         <v>429</v>
       </c>
@@ -89779,7 +89837,7 @@
       <c r="AY152" s="4"/>
       <c r="AZ152" s="10"/>
     </row>
-    <row r="153" spans="1:52" ht="15">
+    <row r="153" spans="1:52">
       <c r="A153" t="s">
         <v>760</v>
       </c>
@@ -89856,7 +89914,7 @@
       <c r="AY153" s="4"/>
       <c r="AZ153" s="10"/>
     </row>
-    <row r="154" spans="1:52" ht="15">
+    <row r="154" spans="1:52">
       <c r="A154" t="s">
         <v>761</v>
       </c>
@@ -89933,7 +89991,7 @@
       <c r="AY154" s="4"/>
       <c r="AZ154" s="10"/>
     </row>
-    <row r="155" spans="1:52" ht="15">
+    <row r="155" spans="1:52">
       <c r="A155" t="s">
         <v>435</v>
       </c>
@@ -90010,7 +90068,7 @@
       <c r="AY155" s="4"/>
       <c r="AZ155" s="10"/>
     </row>
-    <row r="156" spans="1:52" ht="15">
+    <row r="156" spans="1:52">
       <c r="A156" t="s">
         <v>437</v>
       </c>
@@ -90087,7 +90145,7 @@
       <c r="AY156" s="4"/>
       <c r="AZ156" s="10"/>
     </row>
-    <row r="157" spans="1:52" ht="15">
+    <row r="157" spans="1:52">
       <c r="A157" t="s">
         <v>439</v>
       </c>
@@ -90164,7 +90222,7 @@
       <c r="AY157" s="4"/>
       <c r="AZ157" s="10"/>
     </row>
-    <row r="158" spans="1:52" ht="15">
+    <row r="158" spans="1:52">
       <c r="A158" t="s">
         <v>441</v>
       </c>
@@ -90241,7 +90299,7 @@
       <c r="AY158" s="4"/>
       <c r="AZ158" s="10"/>
     </row>
-    <row r="159" spans="1:52" ht="15">
+    <row r="159" spans="1:52">
       <c r="A159" t="s">
         <v>443</v>
       </c>
@@ -90318,7 +90376,7 @@
       <c r="AY159" s="4"/>
       <c r="AZ159" s="10"/>
     </row>
-    <row r="160" spans="1:52" ht="15">
+    <row r="160" spans="1:52">
       <c r="A160" t="s">
         <v>445</v>
       </c>
@@ -90395,7 +90453,7 @@
       <c r="AY160" s="4"/>
       <c r="AZ160" s="10"/>
     </row>
-    <row r="161" spans="1:52" ht="15">
+    <row r="161" spans="1:52">
       <c r="A161" t="s">
         <v>447</v>
       </c>
@@ -90472,7 +90530,7 @@
       <c r="AY161" s="4"/>
       <c r="AZ161" s="10"/>
     </row>
-    <row r="162" spans="1:52" ht="15">
+    <row r="162" spans="1:52">
       <c r="A162" t="s">
         <v>762</v>
       </c>
@@ -90549,7 +90607,7 @@
       <c r="AY162" s="4"/>
       <c r="AZ162" s="10"/>
     </row>
-    <row r="163" spans="1:52" ht="15">
+    <row r="163" spans="1:52">
       <c r="A163" t="s">
         <v>451</v>
       </c>
@@ -90626,7 +90684,7 @@
       <c r="AY163" s="4"/>
       <c r="AZ163" s="10"/>
     </row>
-    <row r="164" spans="1:52" ht="15">
+    <row r="164" spans="1:52">
       <c r="M164" s="4"/>
       <c r="N164" s="5"/>
       <c r="O164" s="6"/>
@@ -90668,7 +90726,7 @@
       <c r="AY164" s="4"/>
       <c r="AZ164" s="10"/>
     </row>
-    <row r="165" spans="1:52" ht="15">
+    <row r="165" spans="1:52">
       <c r="M165" s="4"/>
       <c r="N165" s="5"/>
       <c r="O165" s="6"/>
@@ -90710,7 +90768,7 @@
       <c r="AY165" s="4"/>
       <c r="AZ165" s="10"/>
     </row>
-    <row r="166" spans="1:52" ht="15">
+    <row r="166" spans="1:52">
       <c r="M166" s="4"/>
       <c r="N166" s="5"/>
       <c r="O166" s="6"/>
@@ -90752,7 +90810,7 @@
       <c r="AY166" s="4"/>
       <c r="AZ166" s="10"/>
     </row>
-    <row r="167" spans="1:52" ht="15">
+    <row r="167" spans="1:52">
       <c r="M167" s="4"/>
       <c r="N167" s="5"/>
       <c r="O167" s="6"/>
@@ -90794,7 +90852,7 @@
       <c r="AY167" s="4"/>
       <c r="AZ167" s="10"/>
     </row>
-    <row r="168" spans="1:52" ht="15">
+    <row r="168" spans="1:52">
       <c r="M168" s="4"/>
       <c r="N168" s="5"/>
       <c r="O168" s="6"/>
@@ -90836,7 +90894,7 @@
       <c r="AY168" s="4"/>
       <c r="AZ168" s="10"/>
     </row>
-    <row r="169" spans="1:52" ht="15">
+    <row r="169" spans="1:52">
       <c r="M169" s="4"/>
       <c r="N169" s="5"/>
       <c r="O169" s="6"/>
@@ -90878,7 +90936,7 @@
       <c r="AY169" s="4"/>
       <c r="AZ169" s="10"/>
     </row>
-    <row r="170" spans="1:52" ht="15">
+    <row r="170" spans="1:52">
       <c r="M170" s="4"/>
       <c r="N170" s="5"/>
       <c r="O170" s="6"/>
@@ -90920,7 +90978,7 @@
       <c r="AY170" s="4"/>
       <c r="AZ170" s="10"/>
     </row>
-    <row r="171" spans="1:52" ht="15">
+    <row r="171" spans="1:52">
       <c r="M171" s="4"/>
       <c r="N171" s="5"/>
       <c r="O171" s="6"/>
@@ -90962,7 +91020,7 @@
       <c r="AY171" s="4"/>
       <c r="AZ171" s="10"/>
     </row>
-    <row r="172" spans="1:52" ht="15">
+    <row r="172" spans="1:52">
       <c r="M172" s="4"/>
       <c r="N172" s="5"/>
       <c r="O172" s="6"/>
@@ -91004,7 +91062,7 @@
       <c r="AY172" s="4"/>
       <c r="AZ172" s="10"/>
     </row>
-    <row r="173" spans="1:52" ht="15">
+    <row r="173" spans="1:52">
       <c r="M173" s="4"/>
       <c r="N173" s="5"/>
       <c r="O173" s="6"/>
@@ -91046,7 +91104,7 @@
       <c r="AY173" s="4"/>
       <c r="AZ173" s="10"/>
     </row>
-    <row r="174" spans="1:52" ht="15">
+    <row r="174" spans="1:52">
       <c r="M174" s="4"/>
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
@@ -91088,7 +91146,7 @@
       <c r="AY174" s="4"/>
       <c r="AZ174" s="10"/>
     </row>
-    <row r="175" spans="1:52" ht="15">
+    <row r="175" spans="1:52">
       <c r="M175" s="4"/>
       <c r="N175" s="5"/>
       <c r="O175" s="6"/>
@@ -91130,7 +91188,7 @@
       <c r="AY175" s="4"/>
       <c r="AZ175" s="10"/>
     </row>
-    <row r="176" spans="1:52" ht="15">
+    <row r="176" spans="1:52">
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="6"/>
@@ -91172,7 +91230,7 @@
       <c r="AY176" s="4"/>
       <c r="AZ176" s="10"/>
     </row>
-    <row r="177" spans="13:52" ht="15">
+    <row r="177" spans="13:52">
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="6"/>
@@ -91214,7 +91272,7 @@
       <c r="AY177" s="4"/>
       <c r="AZ177" s="10"/>
     </row>
-    <row r="178" spans="13:52" ht="15">
+    <row r="178" spans="13:52">
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="6"/>
@@ -91256,7 +91314,7 @@
       <c r="AY178" s="4"/>
       <c r="AZ178" s="10"/>
     </row>
-    <row r="179" spans="13:52" ht="15">
+    <row r="179" spans="13:52">
       <c r="M179" s="4"/>
       <c r="N179" s="5"/>
       <c r="O179" s="6"/>
@@ -91298,7 +91356,7 @@
       <c r="AY179" s="4"/>
       <c r="AZ179" s="10"/>
     </row>
-    <row r="180" spans="13:52" ht="15">
+    <row r="180" spans="13:52">
       <c r="M180" s="4"/>
       <c r="N180" s="5"/>
       <c r="O180" s="6"/>
@@ -91340,7 +91398,7 @@
       <c r="AY180" s="4"/>
       <c r="AZ180" s="10"/>
     </row>
-    <row r="181" spans="13:52" ht="15">
+    <row r="181" spans="13:52">
       <c r="M181" s="4"/>
       <c r="N181" s="5"/>
       <c r="O181" s="6"/>
@@ -91382,7 +91440,7 @@
       <c r="AY181" s="4"/>
       <c r="AZ181" s="10"/>
     </row>
-    <row r="182" spans="13:52" ht="15">
+    <row r="182" spans="13:52">
       <c r="M182" s="4"/>
       <c r="N182" s="5"/>
       <c r="O182" s="6"/>
@@ -91424,7 +91482,7 @@
       <c r="AY182" s="4"/>
       <c r="AZ182" s="10"/>
     </row>
-    <row r="183" spans="13:52" ht="15">
+    <row r="183" spans="13:52">
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="6"/>
@@ -91466,7 +91524,7 @@
       <c r="AY183" s="4"/>
       <c r="AZ183" s="10"/>
     </row>
-    <row r="184" spans="13:52" ht="15">
+    <row r="184" spans="13:52">
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="6"/>
@@ -91508,7 +91566,7 @@
       <c r="AY184" s="4"/>
       <c r="AZ184" s="10"/>
     </row>
-    <row r="185" spans="13:52" ht="15">
+    <row r="185" spans="13:52">
       <c r="M185" s="4"/>
       <c r="N185" s="5"/>
       <c r="O185" s="6"/>
@@ -91550,7 +91608,7 @@
       <c r="AY185" s="4"/>
       <c r="AZ185" s="10"/>
     </row>
-    <row r="186" spans="13:52" ht="15">
+    <row r="186" spans="13:52">
       <c r="M186" s="4"/>
       <c r="N186" s="5"/>
       <c r="O186" s="6"/>
@@ -91592,7 +91650,7 @@
       <c r="AY186" s="4"/>
       <c r="AZ186" s="10"/>
     </row>
-    <row r="187" spans="13:52" ht="15">
+    <row r="187" spans="13:52">
       <c r="M187" s="4"/>
       <c r="N187" s="5"/>
       <c r="O187" s="6"/>
@@ -91634,7 +91692,7 @@
       <c r="AY187" s="4"/>
       <c r="AZ187" s="10"/>
     </row>
-    <row r="188" spans="13:52" ht="15">
+    <row r="188" spans="13:52">
       <c r="M188" s="4"/>
       <c r="N188" s="5"/>
       <c r="O188" s="6"/>
@@ -91676,7 +91734,7 @@
       <c r="AY188" s="4"/>
       <c r="AZ188" s="10"/>
     </row>
-    <row r="189" spans="13:52" ht="15">
+    <row r="189" spans="13:52">
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="6"/>
@@ -91718,7 +91776,7 @@
       <c r="AY189" s="4"/>
       <c r="AZ189" s="10"/>
     </row>
-    <row r="190" spans="13:52" ht="15">
+    <row r="190" spans="13:52">
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="6"/>
@@ -91760,7 +91818,7 @@
       <c r="AY190" s="4"/>
       <c r="AZ190" s="10"/>
     </row>
-    <row r="191" spans="13:52" ht="15">
+    <row r="191" spans="13:52">
       <c r="M191" s="4"/>
       <c r="N191" s="5"/>
       <c r="O191" s="6"/>
@@ -91802,7 +91860,7 @@
       <c r="AY191" s="4"/>
       <c r="AZ191" s="10"/>
     </row>
-    <row r="192" spans="13:52" ht="15">
+    <row r="192" spans="13:52">
       <c r="M192" s="4"/>
       <c r="N192" s="5"/>
       <c r="O192" s="6"/>
@@ -91844,7 +91902,7 @@
       <c r="AY192" s="4"/>
       <c r="AZ192" s="10"/>
     </row>
-    <row r="193" spans="13:52" ht="15">
+    <row r="193" spans="13:52">
       <c r="M193" s="4"/>
       <c r="N193" s="5"/>
       <c r="O193" s="6"/>
@@ -91886,7 +91944,7 @@
       <c r="AY193" s="4"/>
       <c r="AZ193" s="10"/>
     </row>
-    <row r="194" spans="13:52" ht="15">
+    <row r="194" spans="13:52">
       <c r="M194" s="4"/>
       <c r="N194" s="5"/>
       <c r="O194" s="6"/>
@@ -91928,7 +91986,7 @@
       <c r="AY194" s="4"/>
       <c r="AZ194" s="10"/>
     </row>
-    <row r="195" spans="13:52" ht="15">
+    <row r="195" spans="13:52">
       <c r="M195" s="4"/>
       <c r="N195" s="5"/>
       <c r="O195" s="6"/>
@@ -91970,7 +92028,7 @@
       <c r="AY195" s="4"/>
       <c r="AZ195" s="10"/>
     </row>
-    <row r="196" spans="13:52" ht="15">
+    <row r="196" spans="13:52">
       <c r="M196" s="4"/>
       <c r="N196" s="5"/>
       <c r="O196" s="6"/>
@@ -92012,7 +92070,7 @@
       <c r="AY196" s="4"/>
       <c r="AZ196" s="10"/>
     </row>
-    <row r="197" spans="13:52" ht="15">
+    <row r="197" spans="13:52">
       <c r="M197" s="4"/>
       <c r="N197" s="5"/>
       <c r="O197" s="6"/>
@@ -92054,7 +92112,7 @@
       <c r="AY197" s="4"/>
       <c r="AZ197" s="10"/>
     </row>
-    <row r="198" spans="13:52" ht="15">
+    <row r="198" spans="13:52">
       <c r="M198" s="4"/>
       <c r="N198" s="5"/>
       <c r="O198" s="6"/>
@@ -92096,7 +92154,7 @@
       <c r="AY198" s="4"/>
       <c r="AZ198" s="10"/>
     </row>
-    <row r="199" spans="13:52" ht="15">
+    <row r="199" spans="13:52">
       <c r="M199" s="4"/>
       <c r="N199" s="5"/>
       <c r="O199" s="6"/>
@@ -92138,7 +92196,7 @@
       <c r="AY199" s="4"/>
       <c r="AZ199" s="10"/>
     </row>
-    <row r="200" spans="13:52" ht="15">
+    <row r="200" spans="13:52">
       <c r="M200" s="4"/>
       <c r="N200" s="5"/>
       <c r="O200" s="6"/>
@@ -92180,7 +92238,7 @@
       <c r="AY200" s="4"/>
       <c r="AZ200" s="10"/>
     </row>
-    <row r="201" spans="13:52" ht="15">
+    <row r="201" spans="13:52">
       <c r="M201" s="4"/>
       <c r="N201" s="5"/>
       <c r="O201" s="6"/>
@@ -92222,7 +92280,7 @@
       <c r="AY201" s="4"/>
       <c r="AZ201" s="10"/>
     </row>
-    <row r="202" spans="13:52" ht="15">
+    <row r="202" spans="13:52">
       <c r="M202" s="4"/>
       <c r="N202" s="5"/>
       <c r="O202" s="6"/>
@@ -92264,7 +92322,7 @@
       <c r="AY202" s="4"/>
       <c r="AZ202" s="10"/>
     </row>
-    <row r="203" spans="13:52" ht="15">
+    <row r="203" spans="13:52">
       <c r="M203" s="4"/>
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
@@ -92306,7 +92364,7 @@
       <c r="AY203" s="4"/>
       <c r="AZ203" s="10"/>
     </row>
-    <row r="204" spans="13:52" ht="15">
+    <row r="204" spans="13:52">
       <c r="M204" s="4"/>
       <c r="N204" s="5"/>
       <c r="O204" s="6"/>
@@ -92348,7 +92406,7 @@
       <c r="AY204" s="4"/>
       <c r="AZ204" s="10"/>
     </row>
-    <row r="205" spans="13:52" ht="15">
+    <row r="205" spans="13:52">
       <c r="M205" s="4"/>
       <c r="N205" s="5"/>
       <c r="O205" s="6"/>
@@ -92390,7 +92448,7 @@
       <c r="AY205" s="4"/>
       <c r="AZ205" s="10"/>
     </row>
-    <row r="206" spans="13:52" ht="15">
+    <row r="206" spans="13:52">
       <c r="M206" s="4"/>
       <c r="N206" s="5"/>
       <c r="O206" s="6"/>
@@ -92432,7 +92490,7 @@
       <c r="AY206" s="4"/>
       <c r="AZ206" s="10"/>
     </row>
-    <row r="207" spans="13:52" ht="15">
+    <row r="207" spans="13:52">
       <c r="M207" s="4"/>
       <c r="N207" s="5"/>
       <c r="O207" s="6"/>
@@ -92474,7 +92532,7 @@
       <c r="AY207" s="4"/>
       <c r="AZ207" s="10"/>
     </row>
-    <row r="208" spans="13:52" ht="15">
+    <row r="208" spans="13:52">
       <c r="M208" s="4"/>
       <c r="N208" s="5"/>
       <c r="O208" s="6"/>
@@ -92516,7 +92574,7 @@
       <c r="AY208" s="4"/>
       <c r="AZ208" s="10"/>
     </row>
-    <row r="209" spans="13:52" ht="15">
+    <row r="209" spans="13:52">
       <c r="M209" s="4"/>
       <c r="N209" s="5"/>
       <c r="O209" s="6"/>
@@ -92558,7 +92616,7 @@
       <c r="AY209" s="4"/>
       <c r="AZ209" s="10"/>
     </row>
-    <row r="210" spans="13:52" ht="15">
+    <row r="210" spans="13:52">
       <c r="M210" s="4"/>
       <c r="N210" s="5"/>
       <c r="O210" s="6"/>
@@ -92600,7 +92658,7 @@
       <c r="AY210" s="4"/>
       <c r="AZ210" s="10"/>
     </row>
-    <row r="211" spans="13:52" ht="15">
+    <row r="211" spans="13:52">
       <c r="M211" s="4"/>
       <c r="N211" s="5"/>
       <c r="O211" s="6"/>
@@ -92642,7 +92700,7 @@
       <c r="AY211" s="4"/>
       <c r="AZ211" s="10"/>
     </row>
-    <row r="212" spans="13:52" ht="15">
+    <row r="212" spans="13:52">
       <c r="M212" s="4"/>
       <c r="N212" s="5"/>
       <c r="O212" s="6"/>
@@ -92684,7 +92742,7 @@
       <c r="AY212" s="4"/>
       <c r="AZ212" s="10"/>
     </row>
-    <row r="213" spans="13:52" ht="15">
+    <row r="213" spans="13:52">
       <c r="M213" s="4"/>
       <c r="N213" s="5"/>
       <c r="O213" s="6"/>
@@ -92726,7 +92784,7 @@
       <c r="AY213" s="4"/>
       <c r="AZ213" s="10"/>
     </row>
-    <row r="214" spans="13:52" ht="15">
+    <row r="214" spans="13:52">
       <c r="M214" s="4"/>
       <c r="N214" s="5"/>
       <c r="O214" s="6"/>
@@ -92768,7 +92826,7 @@
       <c r="AY214" s="4"/>
       <c r="AZ214" s="10"/>
     </row>
-    <row r="215" spans="13:52" ht="15">
+    <row r="215" spans="13:52">
       <c r="M215" s="4"/>
       <c r="N215" s="5"/>
       <c r="O215" s="6"/>
@@ -92810,7 +92868,7 @@
       <c r="AY215" s="4"/>
       <c r="AZ215" s="10"/>
     </row>
-    <row r="216" spans="13:52" ht="15">
+    <row r="216" spans="13:52">
       <c r="M216" s="4"/>
       <c r="N216" s="5"/>
       <c r="O216" s="6"/>
@@ -92852,7 +92910,7 @@
       <c r="AY216" s="4"/>
       <c r="AZ216" s="10"/>
     </row>
-    <row r="217" spans="13:52" ht="15">
+    <row r="217" spans="13:52">
       <c r="M217" s="4"/>
       <c r="N217" s="5"/>
       <c r="O217" s="6"/>
@@ -92894,7 +92952,7 @@
       <c r="AY217" s="4"/>
       <c r="AZ217" s="10"/>
     </row>
-    <row r="218" spans="13:52" ht="15">
+    <row r="218" spans="13:52">
       <c r="M218" s="4"/>
       <c r="N218" s="5"/>
       <c r="O218" s="6"/>
@@ -92936,7 +92994,7 @@
       <c r="AY218" s="4"/>
       <c r="AZ218" s="10"/>
     </row>
-    <row r="219" spans="13:52" ht="15">
+    <row r="219" spans="13:52">
       <c r="M219" s="4"/>
       <c r="N219" s="5"/>
       <c r="O219" s="6"/>
@@ -92978,7 +93036,7 @@
       <c r="AY219" s="4"/>
       <c r="AZ219" s="10"/>
     </row>
-    <row r="220" spans="13:52" ht="15">
+    <row r="220" spans="13:52">
       <c r="M220" s="4"/>
       <c r="N220" s="5"/>
       <c r="O220" s="6"/>
@@ -93020,7 +93078,7 @@
       <c r="AY220" s="4"/>
       <c r="AZ220" s="10"/>
     </row>
-    <row r="221" spans="13:52" ht="15">
+    <row r="221" spans="13:52">
       <c r="M221" s="4"/>
       <c r="N221" s="5"/>
       <c r="O221" s="6"/>
@@ -93062,7 +93120,7 @@
       <c r="AY221" s="4"/>
       <c r="AZ221" s="10"/>
     </row>
-    <row r="222" spans="13:52" ht="15">
+    <row r="222" spans="13:52">
       <c r="M222" s="4"/>
       <c r="N222" s="5"/>
       <c r="O222" s="6"/>
@@ -93104,7 +93162,7 @@
       <c r="AY222" s="4"/>
       <c r="AZ222" s="10"/>
     </row>
-    <row r="223" spans="13:52" ht="15">
+    <row r="223" spans="13:52">
       <c r="M223" s="4"/>
       <c r="N223" s="5"/>
       <c r="O223" s="6"/>
@@ -93146,7 +93204,7 @@
       <c r="AY223" s="4"/>
       <c r="AZ223" s="10"/>
     </row>
-    <row r="224" spans="13:52" ht="15">
+    <row r="224" spans="13:52">
       <c r="M224" s="4"/>
       <c r="N224" s="5"/>
       <c r="O224" s="6"/>
@@ -93188,7 +93246,7 @@
       <c r="AY224" s="4"/>
       <c r="AZ224" s="10"/>
     </row>
-    <row r="225" spans="13:52" ht="15">
+    <row r="225" spans="13:52">
       <c r="M225" s="4"/>
       <c r="N225" s="5"/>
       <c r="O225" s="6"/>
@@ -93230,7 +93288,7 @@
       <c r="AY225" s="4"/>
       <c r="AZ225" s="10"/>
     </row>
-    <row r="226" spans="13:52" ht="15">
+    <row r="226" spans="13:52">
       <c r="M226" s="4"/>
       <c r="N226" s="5"/>
       <c r="O226" s="6"/>
@@ -93272,7 +93330,7 @@
       <c r="AY226" s="4"/>
       <c r="AZ226" s="10"/>
     </row>
-    <row r="227" spans="13:52" ht="15">
+    <row r="227" spans="13:52">
       <c r="M227" s="4"/>
       <c r="N227" s="5"/>
       <c r="O227" s="6"/>
@@ -93314,7 +93372,7 @@
       <c r="AY227" s="4"/>
       <c r="AZ227" s="10"/>
     </row>
-    <row r="228" spans="13:52" ht="15">
+    <row r="228" spans="13:52">
       <c r="M228" s="4"/>
       <c r="N228" s="5"/>
       <c r="O228" s="6"/>
@@ -93356,7 +93414,7 @@
       <c r="AY228" s="4"/>
       <c r="AZ228" s="10"/>
     </row>
-    <row r="229" spans="13:52" ht="15">
+    <row r="229" spans="13:52">
       <c r="M229" s="4"/>
       <c r="N229" s="5"/>
       <c r="O229" s="6"/>
@@ -93398,7 +93456,7 @@
       <c r="AY229" s="4"/>
       <c r="AZ229" s="10"/>
     </row>
-    <row r="230" spans="13:52" ht="15">
+    <row r="230" spans="13:52">
       <c r="M230" s="4"/>
       <c r="N230" s="5"/>
       <c r="O230" s="6"/>
@@ -93440,7 +93498,7 @@
       <c r="AY230" s="4"/>
       <c r="AZ230" s="10"/>
     </row>
-    <row r="231" spans="13:52" ht="15">
+    <row r="231" spans="13:52">
       <c r="M231" s="4"/>
       <c r="N231" s="5"/>
       <c r="O231" s="6"/>
@@ -93482,7 +93540,7 @@
       <c r="AY231" s="4"/>
       <c r="AZ231" s="10"/>
     </row>
-    <row r="232" spans="13:52" ht="15">
+    <row r="232" spans="13:52">
       <c r="M232" s="4"/>
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
@@ -93524,7 +93582,7 @@
       <c r="AY232" s="4"/>
       <c r="AZ232" s="10"/>
     </row>
-    <row r="233" spans="13:52" ht="15">
+    <row r="233" spans="13:52">
       <c r="M233" s="4"/>
       <c r="N233" s="5"/>
       <c r="O233" s="6"/>
@@ -93566,7 +93624,7 @@
       <c r="AY233" s="4"/>
       <c r="AZ233" s="10"/>
     </row>
-    <row r="234" spans="13:52" ht="15">
+    <row r="234" spans="13:52">
       <c r="M234" s="4"/>
       <c r="N234" s="5"/>
       <c r="O234" s="6"/>
@@ -93608,7 +93666,7 @@
       <c r="AY234" s="4"/>
       <c r="AZ234" s="10"/>
     </row>
-    <row r="235" spans="13:52" ht="15">
+    <row r="235" spans="13:52">
       <c r="M235" s="4"/>
       <c r="N235" s="5"/>
       <c r="O235" s="6"/>
@@ -93650,7 +93708,7 @@
       <c r="AY235" s="4"/>
       <c r="AZ235" s="10"/>
     </row>
-    <row r="236" spans="13:52" ht="15">
+    <row r="236" spans="13:52">
       <c r="M236" s="4"/>
       <c r="N236" s="5"/>
       <c r="O236" s="6"/>
@@ -93692,7 +93750,7 @@
       <c r="AY236" s="4"/>
       <c r="AZ236" s="10"/>
     </row>
-    <row r="237" spans="13:52" ht="15">
+    <row r="237" spans="13:52">
       <c r="M237" s="4"/>
       <c r="N237" s="5"/>
       <c r="O237" s="6"/>
@@ -93734,7 +93792,7 @@
       <c r="AY237" s="4"/>
       <c r="AZ237" s="10"/>
     </row>
-    <row r="238" spans="13:52" ht="15">
+    <row r="238" spans="13:52">
       <c r="M238" s="4"/>
       <c r="N238" s="5"/>
       <c r="O238" s="6"/>
@@ -93776,7 +93834,7 @@
       <c r="AY238" s="4"/>
       <c r="AZ238" s="10"/>
     </row>
-    <row r="239" spans="13:52" ht="15">
+    <row r="239" spans="13:52">
       <c r="M239" s="4"/>
       <c r="N239" s="5"/>
       <c r="O239" s="6"/>
@@ -93818,7 +93876,7 @@
       <c r="AY239" s="4"/>
       <c r="AZ239" s="10"/>
     </row>
-    <row r="240" spans="13:52" ht="15">
+    <row r="240" spans="13:52">
       <c r="M240" s="4"/>
       <c r="N240" s="5"/>
       <c r="O240" s="6"/>
@@ -93860,7 +93918,7 @@
       <c r="AY240" s="4"/>
       <c r="AZ240" s="10"/>
     </row>
-    <row r="241" spans="13:52" ht="15">
+    <row r="241" spans="13:52">
       <c r="M241" s="4"/>
       <c r="N241" s="5"/>
       <c r="O241" s="6"/>
@@ -93902,7 +93960,7 @@
       <c r="AY241" s="4"/>
       <c r="AZ241" s="10"/>
     </row>
-    <row r="242" spans="13:52" ht="15">
+    <row r="242" spans="13:52">
       <c r="M242" s="4"/>
       <c r="N242" s="5"/>
       <c r="O242" s="6"/>
@@ -93944,7 +94002,7 @@
       <c r="AY242" s="4"/>
       <c r="AZ242" s="10"/>
     </row>
-    <row r="243" spans="13:52" ht="15">
+    <row r="243" spans="13:52">
       <c r="M243" s="4"/>
       <c r="N243" s="5"/>
       <c r="O243" s="6"/>
@@ -93986,7 +94044,7 @@
       <c r="AY243" s="4"/>
       <c r="AZ243" s="10"/>
     </row>
-    <row r="244" spans="13:52" ht="15">
+    <row r="244" spans="13:52">
       <c r="M244" s="4"/>
       <c r="N244" s="5"/>
       <c r="O244" s="6"/>
@@ -94028,7 +94086,7 @@
       <c r="AY244" s="4"/>
       <c r="AZ244" s="10"/>
     </row>
-    <row r="245" spans="13:52" ht="15">
+    <row r="245" spans="13:52">
       <c r="M245" s="4"/>
       <c r="N245" s="5"/>
       <c r="O245" s="6"/>
@@ -94070,7 +94128,7 @@
       <c r="AY245" s="4"/>
       <c r="AZ245" s="10"/>
     </row>
-    <row r="246" spans="13:52" ht="15">
+    <row r="246" spans="13:52">
       <c r="M246" s="4"/>
       <c r="N246" s="5"/>
       <c r="O246" s="6"/>
@@ -94112,7 +94170,7 @@
       <c r="AY246" s="4"/>
       <c r="AZ246" s="10"/>
     </row>
-    <row r="247" spans="13:52" ht="15">
+    <row r="247" spans="13:52">
       <c r="M247" s="4"/>
       <c r="N247" s="5"/>
       <c r="O247" s="6"/>
@@ -94154,7 +94212,7 @@
       <c r="AY247" s="4"/>
       <c r="AZ247" s="10"/>
     </row>
-    <row r="248" spans="13:52" ht="15">
+    <row r="248" spans="13:52">
       <c r="M248" s="4"/>
       <c r="N248" s="5"/>
       <c r="O248" s="6"/>
@@ -94196,7 +94254,7 @@
       <c r="AY248" s="4"/>
       <c r="AZ248" s="10"/>
     </row>
-    <row r="249" spans="13:52" ht="15">
+    <row r="249" spans="13:52">
       <c r="M249" s="4"/>
       <c r="N249" s="5"/>
       <c r="O249" s="6"/>
@@ -94238,7 +94296,7 @@
       <c r="AY249" s="4"/>
       <c r="AZ249" s="10"/>
     </row>
-    <row r="250" spans="13:52" ht="15">
+    <row r="250" spans="13:52">
       <c r="M250" s="4"/>
       <c r="N250" s="5"/>
       <c r="O250" s="6"/>
@@ -94280,7 +94338,7 @@
       <c r="AY250" s="4"/>
       <c r="AZ250" s="10"/>
     </row>
-    <row r="251" spans="13:52" ht="15">
+    <row r="251" spans="13:52">
       <c r="M251" s="4"/>
       <c r="N251" s="5"/>
       <c r="O251" s="6"/>
@@ -94322,7 +94380,7 @@
       <c r="AY251" s="4"/>
       <c r="AZ251" s="10"/>
     </row>
-    <row r="252" spans="13:52" ht="15">
+    <row r="252" spans="13:52">
       <c r="M252" s="4"/>
       <c r="N252" s="5"/>
       <c r="O252" s="6"/>
@@ -94364,7 +94422,7 @@
       <c r="AY252" s="4"/>
       <c r="AZ252" s="10"/>
     </row>
-    <row r="253" spans="13:52" ht="15">
+    <row r="253" spans="13:52">
       <c r="M253" s="4"/>
       <c r="N253" s="5"/>
       <c r="O253" s="6"/>
@@ -94406,7 +94464,7 @@
       <c r="AY253" s="4"/>
       <c r="AZ253" s="10"/>
     </row>
-    <row r="254" spans="13:52" ht="15">
+    <row r="254" spans="13:52">
       <c r="M254" s="4"/>
       <c r="N254" s="5"/>
       <c r="O254" s="6"/>
@@ -94448,7 +94506,7 @@
       <c r="AY254" s="4"/>
       <c r="AZ254" s="10"/>
     </row>
-    <row r="255" spans="13:52" ht="15">
+    <row r="255" spans="13:52">
       <c r="M255" s="4"/>
       <c r="N255" s="5"/>
       <c r="O255" s="6"/>
@@ -94490,7 +94548,7 @@
       <c r="AY255" s="4"/>
       <c r="AZ255" s="10"/>
     </row>
-    <row r="256" spans="13:52" ht="15">
+    <row r="256" spans="13:52">
       <c r="M256" s="4"/>
       <c r="N256" s="5"/>
       <c r="O256" s="6"/>
@@ -94532,7 +94590,7 @@
       <c r="AY256" s="4"/>
       <c r="AZ256" s="10"/>
     </row>
-    <row r="257" spans="13:52" ht="15">
+    <row r="257" spans="13:52">
       <c r="M257" s="4"/>
       <c r="N257" s="5"/>
       <c r="O257" s="6"/>
@@ -94574,7 +94632,7 @@
       <c r="AY257" s="4"/>
       <c r="AZ257" s="10"/>
     </row>
-    <row r="258" spans="13:52" ht="15">
+    <row r="258" spans="13:52">
       <c r="M258" s="4"/>
       <c r="N258" s="5"/>
       <c r="O258" s="6"/>
@@ -94616,7 +94674,7 @@
       <c r="AY258" s="4"/>
       <c r="AZ258" s="10"/>
     </row>
-    <row r="259" spans="13:52" ht="15">
+    <row r="259" spans="13:52">
       <c r="M259" s="4"/>
       <c r="N259" s="5"/>
       <c r="O259" s="6"/>
@@ -94658,7 +94716,7 @@
       <c r="AY259" s="4"/>
       <c r="AZ259" s="10"/>
     </row>
-    <row r="260" spans="13:52" ht="15">
+    <row r="260" spans="13:52">
       <c r="M260" s="4"/>
       <c r="N260" s="5"/>
       <c r="O260" s="6"/>
@@ -94700,7 +94758,7 @@
       <c r="AY260" s="4"/>
       <c r="AZ260" s="10"/>
     </row>
-    <row r="261" spans="13:52" ht="15">
+    <row r="261" spans="13:52">
       <c r="M261" s="4"/>
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
@@ -94742,7 +94800,7 @@
       <c r="AY261" s="4"/>
       <c r="AZ261" s="10"/>
     </row>
-    <row r="262" spans="13:52" ht="15">
+    <row r="262" spans="13:52">
       <c r="M262" s="4"/>
       <c r="N262" s="5"/>
       <c r="O262" s="6"/>
@@ -94784,7 +94842,7 @@
       <c r="AY262" s="4"/>
       <c r="AZ262" s="10"/>
     </row>
-    <row r="263" spans="13:52" ht="15">
+    <row r="263" spans="13:52">
       <c r="M263" s="4"/>
       <c r="N263" s="5"/>
       <c r="O263" s="6"/>
@@ -94826,7 +94884,7 @@
       <c r="AY263" s="4"/>
       <c r="AZ263" s="10"/>
     </row>
-    <row r="264" spans="13:52" ht="15">
+    <row r="264" spans="13:52">
       <c r="M264" s="4"/>
       <c r="N264" s="5"/>
       <c r="O264" s="6"/>
@@ -94868,7 +94926,7 @@
       <c r="AY264" s="4"/>
       <c r="AZ264" s="10"/>
     </row>
-    <row r="265" spans="13:52" ht="15">
+    <row r="265" spans="13:52">
       <c r="M265" s="4"/>
       <c r="N265" s="5"/>
       <c r="O265" s="6"/>
@@ -94910,7 +94968,7 @@
       <c r="AY265" s="4"/>
       <c r="AZ265" s="10"/>
     </row>
-    <row r="266" spans="13:52" ht="15">
+    <row r="266" spans="13:52">
       <c r="M266" s="4"/>
       <c r="N266" s="5"/>
       <c r="O266" s="6"/>
@@ -94952,7 +95010,7 @@
       <c r="AY266" s="4"/>
       <c r="AZ266" s="10"/>
     </row>
-    <row r="267" spans="13:52" ht="15">
+    <row r="267" spans="13:52">
       <c r="M267" s="4"/>
       <c r="N267" s="5"/>
       <c r="O267" s="6"/>
@@ -94994,7 +95052,7 @@
       <c r="AY267" s="4"/>
       <c r="AZ267" s="10"/>
     </row>
-    <row r="268" spans="13:52" ht="15">
+    <row r="268" spans="13:52">
       <c r="M268" s="4"/>
       <c r="N268" s="5"/>
       <c r="O268" s="6"/>
@@ -95036,7 +95094,7 @@
       <c r="AY268" s="4"/>
       <c r="AZ268" s="10"/>
     </row>
-    <row r="269" spans="13:52" ht="15">
+    <row r="269" spans="13:52">
       <c r="M269" s="4"/>
       <c r="N269" s="5"/>
       <c r="O269" s="6"/>
@@ -95081,5 +95139,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data for mat.xlsx
+++ b/data for mat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="raw L" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Feature" sheetId="3" r:id="rId3"/>
     <sheet name="indep L" sheetId="5" r:id="rId4"/>
     <sheet name="depend L" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="771">
   <si>
     <t>1.4.1</t>
   </si>
@@ -2393,6 +2394,26 @@
     <t>sum_feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>7.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2520,8 +2541,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2555,16 +2578,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2865,7 +2890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -44521,8 +44546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI269"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -72198,8 +72223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -73354,7 +73379,7 @@
         <v>703</v>
       </c>
       <c r="B33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
         <f>'raw L'!C33/'indep L &amp; F'!$B33</f>
@@ -73390,7 +73415,7 @@
         <v>704</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
         <f>'raw L'!C34/'indep L &amp; F'!$B34</f>
@@ -73462,7 +73487,7 @@
         <v>705</v>
       </c>
       <c r="B36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
         <f>'raw L'!C36/'indep L &amp; F'!$B36</f>
@@ -73534,7 +73559,7 @@
         <v>708</v>
       </c>
       <c r="B38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
         <f>'raw L'!C38/'indep L &amp; F'!$B38</f>
@@ -73570,7 +73595,7 @@
         <v>709</v>
       </c>
       <c r="B39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2">
         <f>'raw L'!C39/'indep L &amp; F'!$B39</f>
@@ -73678,7 +73703,7 @@
         <v>711</v>
       </c>
       <c r="B42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2">
         <f>'raw L'!C42/'indep L &amp; F'!$B42</f>
@@ -73750,7 +73775,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2">
         <f>'raw L'!C44/'indep L &amp; F'!$B44</f>
@@ -74146,7 +74171,7 @@
         <v>718</v>
       </c>
       <c r="B55">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="2">
         <f>'raw L'!C55/'indep L &amp; F'!$B55</f>
@@ -74254,7 +74279,7 @@
         <v>720</v>
       </c>
       <c r="B58">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2">
         <f>'raw L'!C58/'indep L &amp; F'!$B58</f>
@@ -74538,9 +74563,11 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="13"/>
+      <c r="A66" s="13" t="s">
+        <v>766</v>
+      </c>
       <c r="B66" s="13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2">
         <f>'raw L'!C66/'indep L &amp; F'!$B66</f>
@@ -74608,8 +74635,11 @@
       </c>
     </row>
     <row r="68" spans="1:9">
+      <c r="A68" s="13" t="s">
+        <v>767</v>
+      </c>
       <c r="B68">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2">
         <f>'raw L'!C68/'indep L &amp; F'!$B68</f>
@@ -74677,8 +74707,11 @@
       </c>
     </row>
     <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>768</v>
+      </c>
       <c r="B70">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2">
         <f>'raw L'!C70/'indep L &amp; F'!$B70</f>
@@ -74746,8 +74779,11 @@
       </c>
     </row>
     <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>769</v>
+      </c>
       <c r="B72">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2">
         <f>'raw L'!C72/'indep L &amp; F'!$B72</f>
@@ -74815,8 +74851,11 @@
       </c>
     </row>
     <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>770</v>
+      </c>
       <c r="B74">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2">
         <f>'raw L'!C74/'indep L &amp; F'!$B74</f>
@@ -75284,7 +75323,7 @@
         <v>733</v>
       </c>
       <c r="B87">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="2">
         <f>'raw L'!C87/'indep L &amp; F'!$B87</f>
@@ -75320,7 +75359,7 @@
         <v>734</v>
       </c>
       <c r="B88">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2">
         <f>'raw L'!C88/'indep L &amp; F'!$B88</f>
@@ -75356,7 +75395,7 @@
         <v>735</v>
       </c>
       <c r="B89">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="2">
         <f>'raw L'!C89/'indep L &amp; F'!$B89</f>
@@ -75392,7 +75431,7 @@
         <v>736</v>
       </c>
       <c r="B90">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2">
         <f>'raw L'!C90/'indep L &amp; F'!$B90</f>
@@ -75536,7 +75575,7 @@
         <v>739</v>
       </c>
       <c r="B94">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2">
         <f>'raw L'!C94/'indep L &amp; F'!$B94</f>
@@ -75932,7 +75971,7 @@
         <v>742</v>
       </c>
       <c r="B105">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="2">
         <f>'raw L'!C105/'indep L &amp; F'!$B105</f>
@@ -76112,7 +76151,7 @@
         <v>743</v>
       </c>
       <c r="B110">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="2">
         <f>'raw L'!C110/'indep L &amp; F'!$B110</f>
@@ -76148,7 +76187,7 @@
         <v>744</v>
       </c>
       <c r="B111">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="2">
         <f>'raw L'!C111/'indep L &amp; F'!$B111</f>
@@ -76184,7 +76223,7 @@
         <v>745</v>
       </c>
       <c r="B112">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="2">
         <f>'raw L'!C112/'indep L &amp; F'!$B112</f>
@@ -76220,7 +76259,7 @@
         <v>746</v>
       </c>
       <c r="B113">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="2">
         <f>'raw L'!C113/'indep L &amp; F'!$B113</f>
@@ -76292,7 +76331,7 @@
         <v>747</v>
       </c>
       <c r="B115">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="2">
         <f>'raw L'!C115/'indep L &amp; F'!$B115</f>
@@ -76328,7 +76367,7 @@
         <v>748</v>
       </c>
       <c r="B116">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="2">
         <f>'raw L'!C116/'indep L &amp; F'!$B116</f>
@@ -76364,7 +76403,7 @@
         <v>749</v>
       </c>
       <c r="B117">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="2">
         <f>'raw L'!C117/'indep L &amp; F'!$B117</f>
@@ -76472,7 +76511,7 @@
         <v>750</v>
       </c>
       <c r="B120">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="2">
         <f>'raw L'!C120/'indep L &amp; F'!$B120</f>
@@ -76616,7 +76655,7 @@
         <v>751</v>
       </c>
       <c r="B124">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C124" s="2">
         <f>'raw L'!C124/'indep L &amp; F'!$B124</f>
@@ -76652,7 +76691,7 @@
         <v>752</v>
       </c>
       <c r="B125">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="2">
         <f>'raw L'!C125/'indep L &amp; F'!$B125</f>
@@ -76688,7 +76727,7 @@
         <v>753</v>
       </c>
       <c r="B126">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="2">
         <f>'raw L'!C126/'indep L &amp; F'!$B126</f>
@@ -76724,7 +76763,7 @@
         <v>754</v>
       </c>
       <c r="B127">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="2">
         <f>'raw L'!C127/'indep L &amp; F'!$B127</f>
@@ -76796,7 +76835,7 @@
         <v>755</v>
       </c>
       <c r="B129">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="2">
         <f>'raw L'!C129/'indep L &amp; F'!$B129</f>
@@ -76868,7 +76907,7 @@
         <v>756</v>
       </c>
       <c r="B131">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="2">
         <f>'raw L'!C131/'indep L &amp; F'!$B131</f>
@@ -76904,7 +76943,7 @@
         <v>757</v>
       </c>
       <c r="B132">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="2">
         <f>'raw L'!C132/'indep L &amp; F'!$B132</f>
@@ -76976,7 +77015,7 @@
         <v>758</v>
       </c>
       <c r="B134">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="2">
         <f>'raw L'!C134/'indep L &amp; F'!$B134</f>
@@ -77012,7 +77051,7 @@
         <v>759</v>
       </c>
       <c r="B135">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="2">
         <f>'raw L'!C135/'indep L &amp; F'!$B135</f>
@@ -77228,7 +77267,7 @@
         <v>406</v>
       </c>
       <c r="B141">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="2">
         <f>'raw L'!C141/'indep L &amp; F'!$B141</f>
@@ -77264,7 +77303,7 @@
         <v>409</v>
       </c>
       <c r="B142">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2">
         <f>'raw L'!C142/'indep L &amp; F'!$B142</f>
@@ -77300,7 +77339,7 @@
         <v>411</v>
       </c>
       <c r="B143">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="2">
         <f>'raw L'!C143/'indep L &amp; F'!$B143</f>
@@ -77336,7 +77375,7 @@
         <v>413</v>
       </c>
       <c r="B144">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2">
         <f>'raw L'!C144/'indep L &amp; F'!$B144</f>
@@ -77372,7 +77411,7 @@
         <v>415</v>
       </c>
       <c r="B145">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="2">
         <f>'raw L'!C145/'indep L &amp; F'!$B145</f>
@@ -77408,7 +77447,7 @@
         <v>417</v>
       </c>
       <c r="B146">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="2">
         <f>'raw L'!C146/'indep L &amp; F'!$B146</f>
@@ -77444,7 +77483,7 @@
         <v>419</v>
       </c>
       <c r="B147">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="2">
         <f>'raw L'!C147/'indep L &amp; F'!$B147</f>
@@ -77516,7 +77555,7 @@
         <v>423</v>
       </c>
       <c r="B149">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="2">
         <f>'raw L'!C149/'indep L &amp; F'!$B149</f>
@@ -77552,7 +77591,7 @@
         <v>425</v>
       </c>
       <c r="B150">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="2">
         <f>'raw L'!C150/'indep L &amp; F'!$B150</f>
@@ -77588,7 +77627,7 @@
         <v>427</v>
       </c>
       <c r="B151">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="2">
         <f>'raw L'!C151/'indep L &amp; F'!$B151</f>
@@ -77624,7 +77663,7 @@
         <v>429</v>
       </c>
       <c r="B152">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="2">
         <f>'raw L'!C152/'indep L &amp; F'!$B152</f>
@@ -77660,7 +77699,7 @@
         <v>760</v>
       </c>
       <c r="B153">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="2">
         <f>'raw L'!C153/'indep L &amp; F'!$B153</f>
@@ -77696,7 +77735,7 @@
         <v>761</v>
       </c>
       <c r="B154">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2">
         <f>'raw L'!C154/'indep L &amp; F'!$B154</f>
@@ -77768,7 +77807,7 @@
         <v>437</v>
       </c>
       <c r="B156">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C156" s="2">
         <f>'raw L'!C156/'indep L &amp; F'!$B156</f>
@@ -77804,7 +77843,7 @@
         <v>439</v>
       </c>
       <c r="B157">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="2">
         <f>'raw L'!C157/'indep L &amp; F'!$B157</f>
@@ -77840,7 +77879,7 @@
         <v>441</v>
       </c>
       <c r="B158">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2">
         <f>'raw L'!C158/'indep L &amp; F'!$B158</f>
@@ -77876,7 +77915,7 @@
         <v>443</v>
       </c>
       <c r="B159">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="2">
         <f>'raw L'!C159/'indep L &amp; F'!$B159</f>
@@ -77912,7 +77951,7 @@
         <v>445</v>
       </c>
       <c r="B160">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="2">
         <f>'raw L'!C160/'indep L &amp; F'!$B160</f>
@@ -77984,7 +78023,7 @@
         <v>762</v>
       </c>
       <c r="B162">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="2">
         <f>'raw L'!C162/'indep L &amp; F'!$B162</f>
@@ -78068,7 +78107,7 @@
   <dimension ref="A1:AZ269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -95145,4 +95184,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data for mat.xlsx
+++ b/data for mat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="raw L" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Feature" sheetId="3" r:id="rId3"/>
     <sheet name="indep L" sheetId="5" r:id="rId4"/>
     <sheet name="depend L" sheetId="4" r:id="rId5"/>
-    <sheet name="工作表2" sheetId="7" r:id="rId6"/>
+    <sheet name="feature_weights" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="810">
   <si>
     <t>1.4.1</t>
   </si>
@@ -2414,6 +2414,130 @@
     <t>7.12.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">    'unaryandbinary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containsspatial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containsunary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containsshape'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Neg'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ManyClause'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containsbinary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Atyp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containssize'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'shapesize'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pureshape'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ellipsis'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'purespatial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'puresize'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Aggreg'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Unnamed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'purebinary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Pron'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'binaryandternary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pureunary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'shapesizespatial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'containsternary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pureternary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'EmbCond'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sizespatial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'shapespatial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'unarybinaryandternary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Rep'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'QDense'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'unaryandternary'</t>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   'unaryandternary'</t>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   'QDense'</t>
+  </si>
+  <si>
+    <t>relabel_constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relabel_predicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relabel_connective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relabel_mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2423,7 +2547,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2467,6 +2591,22 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -2482,13 +2622,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -2541,20 +2717,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2577,19 +2761,35 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="无色" xfId="2" builtinId="28"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2890,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -44546,8 +44746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI269"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -72223,8 +72423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -73775,7 +73975,7 @@
         <v>712</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="2">
         <f>'raw L'!C44/'indep L &amp; F'!$B44</f>
@@ -95188,14 +95388,1591 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
+        <v>0.6421</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16">
+        <v>0.88270000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16">
+        <v>0.7157</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
+        <v>0.84930000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16">
+        <v>0.6159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
+        <v>0.59179999999999999</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <v>0.4607</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16">
+        <v>0.57369999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16">
+        <v>0.45810000000000001</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>0.4163</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16">
+        <v>0.55079999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16">
+        <v>0.51629999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
+        <v>0.2853</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>0.4103</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16">
+        <v>0.34789999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
+        <v>0.1575</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16">
+        <v>0.28079999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16">
+        <v>0.1394</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17">
+        <v>0.1231</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16">
+        <v>0.2429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
+        <v>0.2087</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <v>0.1019</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17">
+        <v>0.108</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
+        <v>0.1225</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
+        <v>5.28E-2</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>0.1132</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17">
+        <v>2.75E-2</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <v>4.65E-2</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>2.75E-2</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17">
+        <v>1.9E-3</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17">
+        <v>0</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
